--- a/final_layout.xlsx
+++ b/final_layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryersonprod-my.sharepoint.com/personal/tmittal_ryerson_ca/Documents/[School]/4X (Capstone)/Programming Models/Final Python Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryersonprod-my.sharepoint.com/personal/tmittal_ryerson_ca/Documents/[School]/4X (Capstone)/Programming Models/Final Capstone Model (w git)/capstone-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:20001_{B2E91865-0A70-4CD1-9C91-438FE3FC0F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{143FA6A3-7C57-464E-8279-0640D14C75C4}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:20001_{B2E91865-0A70-4CD1-9C91-438FE3FC0F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4CAA8BE0-8CD2-4B31-B290-7C193A041DF2}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="45" windowWidth="21600" windowHeight="12210" xr2:uid="{51D8C235-0F41-438C-A040-BD4EEA39B981}"/>
+    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{51D8C235-0F41-438C-A040-BD4EEA39B981}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="1" r:id="rId1"/>
@@ -70,13 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="3">
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="1">
   <si>
     <t/>
   </si>
@@ -483,7 +477,7 @@
   <dimension ref="A1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -587,2675 +581,2675 @@
       </c>
     </row>
     <row r="2" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3">
-        <v>129.38759999999988</v>
+        <v>205.99399999999986</v>
       </c>
       <c r="G2" s="3">
-        <v>135.28039999999987</v>
+        <v>200.10119999999986</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3">
-        <v>135.28039999999987</v>
+        <v>200.10119999999986</v>
       </c>
       <c r="J2" s="3">
-        <v>141.17319999999987</v>
+        <v>194.20839999999987</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3">
-        <v>147.06599999999986</v>
+        <v>188.31559999999988</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3">
-        <v>147.06599999999986</v>
+        <v>188.31559999999988</v>
       </c>
       <c r="P2" s="3">
-        <v>152.95879999999988</v>
+        <v>182.42279999999988</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="3">
-        <v>152.95879999999988</v>
+        <v>182.42279999999988</v>
       </c>
       <c r="S2" s="3">
-        <v>158.85159999999988</v>
+        <v>176.52999999999986</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" s="3">
+        <v>170.63719999999986</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>170.63719999999986</v>
+      </c>
+      <c r="Y2" s="3">
         <v>164.74439999999987</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="3">
+      <c r="Z2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
         <v>164.74439999999987</v>
       </c>
-      <c r="Y2" s="3">
-        <v>170.63719999999986</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>170.63719999999986</v>
-      </c>
       <c r="AB2" s="3">
-        <v>176.52999999999986</v>
+        <v>158.85159999999988</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="3">
-        <v>182.42279999999988</v>
+        <v>152.95879999999988</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="3">
-        <v>182.42279999999988</v>
+        <v>152.95879999999988</v>
       </c>
       <c r="AH2" s="3">
-        <v>188.31559999999988</v>
+        <v>147.06599999999986</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="3">
-        <v>188.31559999999988</v>
+        <v>147.06599999999986</v>
       </c>
       <c r="AK2" s="3">
-        <v>194.20839999999987</v>
+        <v>141.17319999999987</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="3">
-        <v>194.20839999999987</v>
+        <v>141.17319999999987</v>
       </c>
       <c r="AN2" s="3">
-        <v>200.10119999999986</v>
+        <v>135.28039999999987</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="3">
-        <v>200.10119999999986</v>
+        <v>135.28039999999987</v>
       </c>
       <c r="AQ2" s="3">
-        <v>205.99399999999986</v>
+        <v>129.38759999999988</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="3">
-        <v>205.99399999999986</v>
+        <v>129.38759999999988</v>
       </c>
       <c r="AT2" s="3">
-        <v>211.88679999999985</v>
+        <v>123.49479999999987</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>121.11989999999987</v>
+        <v>209.51189999999986</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>127.01269999999987</v>
+        <v>203.61909999999986</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
-        <v>127.01269999999987</v>
+        <v>203.61909999999986</v>
       </c>
       <c r="G3" s="3">
-        <v>132.90549999999988</v>
+        <v>197.72629999999987</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3">
-        <v>132.90549999999988</v>
+        <v>197.72629999999987</v>
       </c>
       <c r="J3" s="3">
-        <v>138.79829999999987</v>
+        <v>191.83349999999987</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3">
-        <v>138.79829999999987</v>
+        <v>191.83349999999987</v>
       </c>
       <c r="M3" s="3">
-        <v>144.69109999999986</v>
+        <v>185.94069999999988</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3">
-        <v>144.69109999999986</v>
+        <v>185.94069999999988</v>
       </c>
       <c r="P3" s="3">
-        <v>150.58389999999989</v>
+        <v>180.04789999999988</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="3">
-        <v>150.58389999999989</v>
+        <v>180.04789999999988</v>
       </c>
       <c r="S3" s="3">
-        <v>156.47669999999988</v>
+        <v>174.15509999999989</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="3">
+        <v>174.15509999999989</v>
+      </c>
+      <c r="V3" s="3">
+        <v>168.26229999999987</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>168.26229999999987</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>162.36949999999987</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>162.36949999999987</v>
+      </c>
+      <c r="AB3" s="3">
         <v>156.47669999999988</v>
       </c>
-      <c r="V3" s="3">
-        <v>162.36949999999987</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="3">
-        <v>162.36949999999987</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>168.26229999999987</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>168.26229999999987</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>174.15509999999989</v>
-      </c>
       <c r="AC3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="3">
-        <v>174.15509999999989</v>
+        <v>156.47669999999988</v>
       </c>
       <c r="AE3" s="3">
-        <v>180.04789999999988</v>
+        <v>150.58389999999989</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="3">
-        <v>180.04789999999988</v>
+        <v>150.58389999999989</v>
       </c>
       <c r="AH3" s="3">
-        <v>185.94069999999988</v>
+        <v>144.69109999999986</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="3">
-        <v>185.94069999999988</v>
+        <v>144.69109999999986</v>
       </c>
       <c r="AK3" s="3">
-        <v>191.83349999999987</v>
+        <v>138.79829999999987</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="3">
-        <v>191.83349999999987</v>
+        <v>138.79829999999987</v>
       </c>
       <c r="AN3" s="3">
-        <v>197.72629999999987</v>
+        <v>132.90549999999988</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="3">
-        <v>197.72629999999987</v>
+        <v>132.90549999999988</v>
       </c>
       <c r="AQ3" s="3">
-        <v>203.61909999999986</v>
+        <v>127.01269999999987</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="3">
-        <v>203.61909999999986</v>
+        <v>127.01269999999987</v>
       </c>
       <c r="AT3" s="3">
-        <v>209.51189999999986</v>
+        <v>121.11989999999987</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>118.74499999999988</v>
+        <v>207.13699999999986</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>118.74499999999988</v>
+        <v>207.13699999999986</v>
       </c>
       <c r="D4" s="3">
-        <v>124.63779999999987</v>
+        <v>201.24419999999986</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3">
-        <v>124.63779999999987</v>
+        <v>201.24419999999986</v>
       </c>
       <c r="G4" s="3">
-        <v>130.53059999999988</v>
+        <v>195.35139999999987</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3">
-        <v>130.53059999999988</v>
+        <v>195.35139999999987</v>
       </c>
       <c r="J4" s="3">
-        <v>136.42339999999987</v>
+        <v>189.45859999999988</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="3">
-        <v>136.42339999999987</v>
+        <v>189.45859999999988</v>
       </c>
       <c r="M4" s="3">
-        <v>142.31619999999987</v>
+        <v>183.56579999999988</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3">
-        <v>142.31619999999987</v>
+        <v>183.56579999999988</v>
       </c>
       <c r="P4" s="3">
-        <v>148.20899999999989</v>
+        <v>177.67299999999989</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="3">
-        <v>148.20899999999989</v>
+        <v>177.67299999999989</v>
       </c>
       <c r="S4" s="3">
-        <v>154.10179999999988</v>
+        <v>171.78019999999987</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="3">
+        <v>171.78019999999987</v>
+      </c>
+      <c r="V4" s="3">
+        <v>165.88739999999987</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>165.88739999999987</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>159.99459999999988</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>159.99459999999988</v>
+      </c>
+      <c r="AB4" s="3">
         <v>154.10179999999988</v>
       </c>
-      <c r="V4" s="3">
-        <v>159.99459999999988</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="3">
-        <v>159.99459999999988</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>165.88739999999987</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>165.88739999999987</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>171.78019999999987</v>
-      </c>
       <c r="AC4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>171.78019999999987</v>
+        <v>154.10179999999988</v>
       </c>
       <c r="AE4" s="3">
-        <v>177.67299999999989</v>
+        <v>148.20899999999989</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="3">
-        <v>177.67299999999989</v>
+        <v>148.20899999999989</v>
       </c>
       <c r="AH4" s="3">
-        <v>183.56579999999988</v>
+        <v>142.31619999999987</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="3">
-        <v>183.56579999999988</v>
+        <v>142.31619999999987</v>
       </c>
       <c r="AK4" s="3">
-        <v>189.45859999999988</v>
+        <v>136.42339999999987</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="3">
-        <v>189.45859999999988</v>
+        <v>136.42339999999987</v>
       </c>
       <c r="AN4" s="3">
-        <v>195.35139999999987</v>
+        <v>130.53059999999988</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="3">
-        <v>195.35139999999987</v>
+        <v>130.53059999999988</v>
       </c>
       <c r="AQ4" s="3">
-        <v>201.24419999999986</v>
+        <v>124.63779999999987</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="3">
-        <v>201.24419999999986</v>
+        <v>124.63779999999987</v>
       </c>
       <c r="AT4" s="3">
-        <v>207.13699999999986</v>
+        <v>118.74499999999988</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>116.37009999999988</v>
+        <v>204.76209999999986</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>122.26289999999987</v>
+        <v>198.86929999999987</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
-        <v>122.26289999999987</v>
+        <v>198.86929999999987</v>
       </c>
       <c r="G5" s="3">
-        <v>128.15569999999988</v>
+        <v>192.97649999999987</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
-        <v>128.15569999999988</v>
+        <v>192.97649999999987</v>
       </c>
       <c r="J5" s="3">
-        <v>134.04849999999988</v>
+        <v>187.08369999999988</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>139.94129999999987</v>
+        <v>181.19089999999989</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3">
-        <v>139.94129999999987</v>
+        <v>181.19089999999989</v>
       </c>
       <c r="P5" s="3">
-        <v>145.83409999999989</v>
+        <v>175.29809999999989</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="3">
-        <v>151.72689999999989</v>
+        <v>169.4052999999999</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
+        <v>163.51249999999987</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>163.51249999999987</v>
+      </c>
+      <c r="Y5" s="3">
         <v>157.61969999999988</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="3">
+      <c r="Z5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
         <v>157.61969999999988</v>
       </c>
-      <c r="Y5" s="3">
-        <v>163.51249999999987</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>163.51249999999987</v>
-      </c>
       <c r="AB5" s="3">
-        <v>169.4052999999999</v>
+        <v>151.72689999999989</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="3">
-        <v>175.29809999999989</v>
+        <v>145.83409999999989</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="3">
-        <v>175.29809999999989</v>
+        <v>145.83409999999989</v>
       </c>
       <c r="AH5" s="3">
-        <v>181.19089999999989</v>
+        <v>139.94129999999987</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="3">
-        <v>181.19089999999989</v>
+        <v>139.94129999999987</v>
       </c>
       <c r="AK5" s="3">
-        <v>187.08369999999988</v>
+        <v>134.04849999999988</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="3">
-        <v>187.08369999999988</v>
+        <v>134.04849999999988</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="3">
-        <v>192.97649999999987</v>
+        <v>128.15569999999988</v>
       </c>
       <c r="AQ5" s="3">
-        <v>198.86929999999987</v>
+        <v>122.26289999999987</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="3">
-        <v>198.86929999999987</v>
+        <v>122.26289999999987</v>
       </c>
       <c r="AT5" s="3">
-        <v>204.76209999999986</v>
+        <v>116.37009999999988</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>113.99519999999988</v>
+        <v>202.38719999999986</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>113.99519999999988</v>
+        <v>202.38719999999986</v>
       </c>
       <c r="D6" s="3">
-        <v>119.88799999999988</v>
+        <v>196.49439999999987</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3">
-        <v>119.88799999999988</v>
+        <v>196.49439999999987</v>
       </c>
       <c r="G6" s="3">
-        <v>125.78079999999989</v>
+        <v>190.60159999999988</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3">
-        <v>125.78079999999989</v>
+        <v>190.60159999999988</v>
       </c>
       <c r="J6" s="3">
-        <v>131.67359999999988</v>
+        <v>184.70879999999988</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="3">
-        <v>131.67359999999988</v>
+        <v>184.70879999999988</v>
       </c>
       <c r="M6" s="3">
-        <v>137.56639999999987</v>
+        <v>178.81599999999989</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3">
-        <v>137.56639999999987</v>
+        <v>178.81599999999989</v>
       </c>
       <c r="P6" s="3">
-        <v>143.4591999999999</v>
+        <v>172.92319999999989</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="3">
-        <v>149.35199999999989</v>
+        <v>167.03039999999987</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="3">
+        <v>167.03039999999987</v>
+      </c>
+      <c r="V6" s="3">
+        <v>161.13759999999988</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>161.13759999999988</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>155.24479999999988</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>155.24479999999988</v>
+      </c>
+      <c r="AB6" s="3">
         <v>149.35199999999989</v>
       </c>
-      <c r="V6" s="3">
-        <v>155.24479999999988</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="3">
-        <v>155.24479999999988</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>161.13759999999988</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>161.13759999999988</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>167.03039999999987</v>
-      </c>
       <c r="AC6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="3">
-        <v>172.92319999999989</v>
+        <v>143.4591999999999</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="3">
-        <v>172.92319999999989</v>
+        <v>143.4591999999999</v>
       </c>
       <c r="AH6" s="3">
-        <v>178.81599999999989</v>
+        <v>137.56639999999987</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="3">
-        <v>178.81599999999989</v>
+        <v>137.56639999999987</v>
       </c>
       <c r="AK6" s="3">
-        <v>184.70879999999988</v>
+        <v>131.67359999999988</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="3">
-        <v>184.70879999999988</v>
+        <v>131.67359999999988</v>
       </c>
       <c r="AN6" s="3">
-        <v>190.60159999999988</v>
+        <v>125.78079999999989</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="3">
-        <v>190.60159999999988</v>
+        <v>125.78079999999989</v>
       </c>
       <c r="AQ6" s="3">
-        <v>196.49439999999987</v>
+        <v>119.88799999999988</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="3">
-        <v>196.49439999999987</v>
+        <v>119.88799999999988</v>
       </c>
       <c r="AT6" s="3">
-        <v>202.38719999999986</v>
+        <v>113.99519999999988</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>111.62029999999989</v>
+        <v>200.01229999999987</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>111.62029999999989</v>
+        <v>200.01229999999987</v>
       </c>
       <c r="D7" s="3">
-        <v>117.51309999999988</v>
+        <v>194.11949999999987</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
-        <v>117.51309999999988</v>
+        <v>194.11949999999987</v>
       </c>
       <c r="G7" s="3">
-        <v>123.40589999999989</v>
+        <v>188.22669999999988</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
-        <v>123.40589999999989</v>
+        <v>188.22669999999988</v>
       </c>
       <c r="J7" s="3">
-        <v>129.29869999999988</v>
+        <v>182.33389999999989</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="3">
-        <v>129.29869999999988</v>
+        <v>182.33389999999989</v>
       </c>
       <c r="M7" s="3">
-        <v>135.19149999999988</v>
+        <v>176.44109999999989</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3">
-        <v>135.19149999999988</v>
+        <v>176.44109999999989</v>
       </c>
       <c r="P7" s="3">
-        <v>141.0842999999999</v>
+        <v>170.5482999999999</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>146.97709999999989</v>
+        <v>164.6554999999999</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="3">
+        <v>164.6554999999999</v>
+      </c>
+      <c r="V7" s="3">
+        <v>158.76269999999988</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>158.76269999999988</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>152.86989999999989</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>152.86989999999989</v>
+      </c>
+      <c r="AB7" s="3">
         <v>146.97709999999989</v>
       </c>
-      <c r="V7" s="3">
-        <v>152.86989999999989</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="3">
-        <v>152.86989999999989</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>158.76269999999988</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>158.76269999999988</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>164.6554999999999</v>
-      </c>
       <c r="AC7" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="3">
-        <v>170.5482999999999</v>
+        <v>141.0842999999999</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="3">
-        <v>170.5482999999999</v>
+        <v>141.0842999999999</v>
       </c>
       <c r="AH7" s="3">
-        <v>176.44109999999989</v>
+        <v>135.19149999999988</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="3">
-        <v>176.44109999999989</v>
+        <v>135.19149999999988</v>
       </c>
       <c r="AK7" s="3">
-        <v>182.33389999999989</v>
+        <v>129.29869999999988</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="3">
-        <v>182.33389999999989</v>
+        <v>129.29869999999988</v>
       </c>
       <c r="AN7" s="3">
-        <v>188.22669999999988</v>
+        <v>123.40589999999989</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2"/>
       <c r="AS7" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>109.24539999999989</v>
+        <v>197.63739999999987</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
-        <v>109.24539999999989</v>
+        <v>197.63739999999987</v>
       </c>
       <c r="D8" s="3">
-        <v>115.13819999999988</v>
+        <v>191.74459999999988</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
-        <v>115.13819999999988</v>
+        <v>191.74459999999988</v>
       </c>
       <c r="G8" s="3">
-        <v>121.03099999999989</v>
+        <v>185.85179999999988</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
-        <v>121.03099999999989</v>
+        <v>185.85179999999988</v>
       </c>
       <c r="J8" s="3">
-        <v>126.92379999999989</v>
+        <v>179.95899999999989</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3">
-        <v>126.92379999999989</v>
+        <v>179.95899999999989</v>
       </c>
       <c r="M8" s="3">
-        <v>132.81659999999988</v>
+        <v>174.0661999999999</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="3">
-        <v>132.81659999999988</v>
+        <v>174.0661999999999</v>
       </c>
       <c r="P8" s="3">
-        <v>138.7093999999999</v>
+        <v>168.1733999999999</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>144.6021999999999</v>
+        <v>162.28059999999988</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="3">
+        <v>162.28059999999988</v>
+      </c>
+      <c r="V8" s="3">
+        <v>156.38779999999988</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>156.38779999999988</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>150.49499999999989</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>150.49499999999989</v>
+      </c>
+      <c r="AB8" s="3">
         <v>144.6021999999999</v>
       </c>
-      <c r="V8" s="3">
-        <v>150.49499999999989</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="3">
-        <v>150.49499999999989</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>156.38779999999988</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>156.38779999999988</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>162.28059999999988</v>
-      </c>
       <c r="AC8" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="3">
-        <v>168.1733999999999</v>
+        <v>138.7093999999999</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="3">
-        <v>168.1733999999999</v>
+        <v>138.7093999999999</v>
       </c>
       <c r="AH8" s="3">
-        <v>174.0661999999999</v>
+        <v>132.81659999999988</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <v>174.0661999999999</v>
+        <v>132.81659999999988</v>
       </c>
       <c r="AK8" s="3">
-        <v>179.95899999999989</v>
+        <v>126.92379999999989</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="3">
-        <v>179.95899999999989</v>
+        <v>126.92379999999989</v>
       </c>
       <c r="AN8" s="3">
-        <v>185.85179999999988</v>
+        <v>121.03099999999989</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="2"/>
       <c r="AS8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>106.87049999999989</v>
+        <v>195.26249999999987</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>106.87049999999989</v>
+        <v>195.26249999999987</v>
       </c>
       <c r="D9" s="3">
-        <v>112.76329999999989</v>
+        <v>189.36969999999988</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
-        <v>112.76329999999989</v>
+        <v>189.36969999999988</v>
       </c>
       <c r="G9" s="3">
-        <v>118.6560999999999</v>
+        <v>183.47689999999989</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
-        <v>118.6560999999999</v>
+        <v>183.47689999999989</v>
       </c>
       <c r="J9" s="3">
-        <v>124.54889999999989</v>
+        <v>177.58409999999989</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3">
-        <v>124.54889999999989</v>
+        <v>177.58409999999989</v>
       </c>
       <c r="M9" s="3">
-        <v>130.44169999999988</v>
+        <v>171.6912999999999</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="3">
-        <v>130.44169999999988</v>
+        <v>171.6912999999999</v>
       </c>
       <c r="P9" s="3">
-        <v>136.33449999999991</v>
+        <v>165.7984999999999</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>142.2272999999999</v>
+        <v>159.90569999999991</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="3">
+        <v>159.90569999999991</v>
+      </c>
+      <c r="V9" s="3">
+        <v>154.01289999999989</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>154.01289999999989</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>148.12009999999989</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>148.12009999999989</v>
+      </c>
+      <c r="AB9" s="3">
         <v>142.2272999999999</v>
       </c>
-      <c r="V9" s="3">
-        <v>148.12009999999989</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="3">
-        <v>148.12009999999989</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>154.01289999999989</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>154.01289999999989</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>159.90569999999991</v>
-      </c>
       <c r="AC9" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="3">
-        <v>165.7984999999999</v>
+        <v>136.33449999999991</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="3">
-        <v>165.7984999999999</v>
+        <v>136.33449999999991</v>
       </c>
       <c r="AH9" s="3">
-        <v>171.6912999999999</v>
+        <v>130.44169999999988</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="3">
-        <v>171.6912999999999</v>
+        <v>130.44169999999988</v>
       </c>
       <c r="AK9" s="3">
-        <v>177.58409999999989</v>
+        <v>124.54889999999989</v>
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="3">
-        <v>177.58409999999989</v>
+        <v>124.54889999999989</v>
       </c>
       <c r="AN9" s="3">
-        <v>183.47689999999989</v>
+        <v>118.6560999999999</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="2"/>
       <c r="AS9" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>104.4955999999999</v>
+        <v>192.88759999999988</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>104.4955999999999</v>
+        <v>192.88759999999988</v>
       </c>
       <c r="D10" s="3">
-        <v>110.38839999999989</v>
+        <v>186.99479999999988</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3">
-        <v>110.38839999999989</v>
+        <v>186.99479999999988</v>
       </c>
       <c r="G10" s="3">
-        <v>116.2811999999999</v>
+        <v>181.10199999999989</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
-        <v>116.2811999999999</v>
+        <v>181.10199999999989</v>
       </c>
       <c r="J10" s="3">
-        <v>122.17399999999989</v>
+        <v>175.2091999999999</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
-        <v>122.17399999999989</v>
+        <v>175.2091999999999</v>
       </c>
       <c r="M10" s="3">
-        <v>128.06679999999989</v>
+        <v>169.3163999999999</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3">
-        <v>128.06679999999989</v>
+        <v>169.3163999999999</v>
       </c>
       <c r="P10" s="3">
-        <v>133.95959999999991</v>
+        <v>163.42359999999991</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>139.8523999999999</v>
+        <v>157.53079999999989</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="3">
+        <v>157.53079999999989</v>
+      </c>
+      <c r="V10" s="3">
+        <v>151.63799999999989</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>151.63799999999989</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>145.7451999999999</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>145.7451999999999</v>
+      </c>
+      <c r="AB10" s="3">
         <v>139.8523999999999</v>
       </c>
-      <c r="V10" s="3">
-        <v>145.7451999999999</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" s="3">
-        <v>145.7451999999999</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>151.63799999999989</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>151.63799999999989</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>157.53079999999989</v>
-      </c>
       <c r="AC10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="3">
-        <v>163.42359999999991</v>
+        <v>133.95959999999991</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="3">
-        <v>163.42359999999991</v>
+        <v>133.95959999999991</v>
       </c>
       <c r="AH10" s="3">
-        <v>169.3163999999999</v>
+        <v>128.06679999999989</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="3">
-        <v>169.3163999999999</v>
+        <v>128.06679999999989</v>
       </c>
       <c r="AK10" s="3">
-        <v>175.2091999999999</v>
+        <v>122.17399999999989</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="3">
-        <v>175.2091999999999</v>
+        <v>122.17399999999989</v>
       </c>
       <c r="AN10" s="3">
-        <v>181.10199999999989</v>
+        <v>116.2811999999999</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>102.1206999999999</v>
+        <v>190.51269999999988</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>108.01349999999989</v>
+        <v>184.61989999999989</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3">
-        <v>108.01349999999989</v>
+        <v>184.61989999999989</v>
       </c>
       <c r="G11" s="3">
-        <v>113.9062999999999</v>
+        <v>178.72709999999989</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3">
-        <v>113.9062999999999</v>
+        <v>178.72709999999989</v>
       </c>
       <c r="J11" s="3">
-        <v>119.7990999999999</v>
+        <v>172.8342999999999</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>125.6918999999999</v>
+        <v>166.94149999999991</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="3">
-        <v>125.6918999999999</v>
+        <v>166.94149999999991</v>
       </c>
       <c r="P11" s="3">
-        <v>131.58469999999991</v>
+        <v>161.04869999999991</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
-        <v>137.47749999999991</v>
+        <v>155.15589999999992</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3">
+        <v>149.26309999999989</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>149.26309999999989</v>
+      </c>
+      <c r="Y11" s="3">
         <v>143.3702999999999</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X11" s="3">
+      <c r="Z11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
         <v>143.3702999999999</v>
       </c>
-      <c r="Y11" s="3">
-        <v>149.26309999999989</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>149.26309999999989</v>
-      </c>
       <c r="AB11" s="3">
-        <v>155.15589999999992</v>
+        <v>137.47749999999991</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="3">
-        <v>161.04869999999991</v>
+        <v>131.58469999999991</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="3">
-        <v>161.04869999999991</v>
+        <v>131.58469999999991</v>
       </c>
       <c r="AH11" s="3">
-        <v>166.94149999999991</v>
+        <v>125.6918999999999</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="3">
-        <v>166.94149999999991</v>
+        <v>125.6918999999999</v>
       </c>
       <c r="AK11" s="3">
-        <v>172.8342999999999</v>
+        <v>119.7990999999999</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="3">
-        <v>172.8342999999999</v>
+        <v>119.7990999999999</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="2"/>
       <c r="AS11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>99.745799999999903</v>
+        <v>188.13779999999988</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>99.745799999999903</v>
+        <v>188.13779999999988</v>
       </c>
       <c r="D12" s="3">
-        <v>105.6385999999999</v>
+        <v>182.24499999999989</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3">
-        <v>105.6385999999999</v>
+        <v>182.24499999999989</v>
       </c>
       <c r="G12" s="3">
-        <v>111.53139999999991</v>
+        <v>176.3521999999999</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3">
-        <v>111.53139999999991</v>
+        <v>176.3521999999999</v>
       </c>
       <c r="J12" s="3">
-        <v>117.4241999999999</v>
+        <v>170.4593999999999</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3">
-        <v>117.4241999999999</v>
+        <v>170.4593999999999</v>
       </c>
       <c r="M12" s="3">
-        <v>123.31699999999991</v>
+        <v>164.56659999999991</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="3">
-        <v>123.31699999999991</v>
+        <v>164.56659999999991</v>
       </c>
       <c r="P12" s="3">
-        <v>129.20979999999992</v>
+        <v>158.67379999999991</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>135.10259999999991</v>
+        <v>152.78099999999989</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="3">
+        <v>152.78099999999989</v>
+      </c>
+      <c r="V12" s="3">
+        <v>146.8881999999999</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>146.8881999999999</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>140.9953999999999</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>140.9953999999999</v>
+      </c>
+      <c r="AB12" s="3">
         <v>135.10259999999991</v>
       </c>
-      <c r="V12" s="3">
-        <v>140.9953999999999</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X12" s="3">
-        <v>140.9953999999999</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>146.8881999999999</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>146.8881999999999</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>152.78099999999989</v>
-      </c>
       <c r="AC12" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="3">
-        <v>158.67379999999991</v>
+        <v>129.20979999999992</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="3">
-        <v>158.67379999999991</v>
+        <v>129.20979999999992</v>
       </c>
       <c r="AH12" s="3">
-        <v>164.56659999999991</v>
+        <v>123.31699999999991</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="3">
-        <v>164.56659999999991</v>
+        <v>123.31699999999991</v>
       </c>
       <c r="AK12" s="3">
-        <v>170.4593999999999</v>
+        <v>117.4241999999999</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="3">
-        <v>170.4593999999999</v>
+        <v>117.4241999999999</v>
       </c>
       <c r="AN12" s="3">
-        <v>176.3521999999999</v>
+        <v>111.53139999999991</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="2"/>
       <c r="AS12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>97.370899999999907</v>
+        <v>185.76289999999989</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>97.370899999999907</v>
+        <v>185.76289999999989</v>
       </c>
       <c r="D13" s="3">
-        <v>103.2636999999999</v>
+        <v>179.87009999999989</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
-        <v>103.2636999999999</v>
+        <v>179.87009999999989</v>
       </c>
       <c r="G13" s="3">
-        <v>109.15649999999991</v>
+        <v>173.9772999999999</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3">
-        <v>109.15649999999991</v>
+        <v>173.9772999999999</v>
       </c>
       <c r="J13" s="3">
-        <v>115.0492999999999</v>
+        <v>168.08449999999991</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3">
-        <v>115.0492999999999</v>
+        <v>168.08449999999991</v>
       </c>
       <c r="M13" s="3">
-        <v>120.94209999999991</v>
+        <v>162.19169999999991</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="3">
-        <v>120.94209999999991</v>
+        <v>162.19169999999991</v>
       </c>
       <c r="P13" s="3">
-        <v>126.83489999999991</v>
+        <v>156.29889999999992</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>132.72769999999991</v>
+        <v>150.40609999999992</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="3">
+        <v>150.40609999999992</v>
+      </c>
+      <c r="V13" s="3">
+        <v>144.5132999999999</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>144.5132999999999</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>138.62049999999991</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>138.62049999999991</v>
+      </c>
+      <c r="AB13" s="3">
         <v>132.72769999999991</v>
       </c>
-      <c r="V13" s="3">
-        <v>138.62049999999991</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X13" s="3">
-        <v>138.62049999999991</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>144.5132999999999</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>144.5132999999999</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>150.40609999999992</v>
-      </c>
       <c r="AC13" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="3">
-        <v>156.29889999999992</v>
+        <v>126.83489999999991</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="3">
-        <v>156.29889999999992</v>
+        <v>126.83489999999991</v>
       </c>
       <c r="AH13" s="3">
-        <v>162.19169999999991</v>
+        <v>120.94209999999991</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="3">
-        <v>162.19169999999991</v>
+        <v>120.94209999999991</v>
       </c>
       <c r="AK13" s="3">
-        <v>168.08449999999991</v>
+        <v>115.0492999999999</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="3">
-        <v>168.08449999999991</v>
+        <v>115.0492999999999</v>
       </c>
       <c r="AN13" s="3">
-        <v>173.9772999999999</v>
+        <v>109.15649999999991</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>94.99599999999991</v>
+        <v>183.38799999999989</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>94.99599999999991</v>
+        <v>183.38799999999989</v>
       </c>
       <c r="D14" s="3">
-        <v>100.8887999999999</v>
+        <v>177.4951999999999</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3">
-        <v>100.8887999999999</v>
+        <v>177.4951999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>106.78159999999991</v>
+        <v>171.6023999999999</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3">
-        <v>106.78159999999991</v>
+        <v>171.6023999999999</v>
       </c>
       <c r="J14" s="3">
-        <v>112.67439999999991</v>
+        <v>165.70959999999991</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="3">
-        <v>112.67439999999991</v>
+        <v>165.70959999999991</v>
       </c>
       <c r="M14" s="3">
-        <v>118.56719999999991</v>
+        <v>159.81679999999992</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="3">
-        <v>118.56719999999991</v>
+        <v>159.81679999999992</v>
       </c>
       <c r="P14" s="3">
-        <v>124.45999999999991</v>
+        <v>153.92399999999992</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>130.35279999999992</v>
+        <v>148.0311999999999</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="3">
+        <v>148.0311999999999</v>
+      </c>
+      <c r="V14" s="3">
+        <v>142.1383999999999</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>142.1383999999999</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>136.24559999999991</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>136.24559999999991</v>
+      </c>
+      <c r="AB14" s="3">
         <v>130.35279999999992</v>
       </c>
-      <c r="V14" s="3">
-        <v>136.24559999999991</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X14" s="3">
-        <v>136.24559999999991</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>142.1383999999999</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>142.1383999999999</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>148.0311999999999</v>
-      </c>
       <c r="AC14" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="3">
-        <v>153.92399999999992</v>
+        <v>124.45999999999991</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="3">
-        <v>153.92399999999992</v>
+        <v>124.45999999999991</v>
       </c>
       <c r="AH14" s="3">
-        <v>159.81679999999992</v>
+        <v>118.56719999999991</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="3">
-        <v>159.81679999999992</v>
+        <v>118.56719999999991</v>
       </c>
       <c r="AK14" s="3">
-        <v>165.70959999999991</v>
+        <v>112.67439999999991</v>
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="3">
-        <v>165.70959999999991</v>
+        <v>112.67439999999991</v>
       </c>
       <c r="AN14" s="3">
-        <v>171.6023999999999</v>
+        <v>106.78159999999991</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>92.621099999999913</v>
+        <v>181.01309999999989</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>92.621099999999913</v>
+        <v>181.01309999999989</v>
       </c>
       <c r="D15" s="3">
-        <v>98.513899999999907</v>
+        <v>175.1202999999999</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3">
-        <v>98.513899999999907</v>
+        <v>175.1202999999999</v>
       </c>
       <c r="G15" s="3">
-        <v>104.40669999999992</v>
+        <v>169.22749999999991</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3">
-        <v>104.40669999999992</v>
+        <v>169.22749999999991</v>
       </c>
       <c r="J15" s="3">
-        <v>110.29949999999991</v>
+        <v>163.33469999999991</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>110.29949999999991</v>
+        <v>163.33469999999991</v>
       </c>
       <c r="M15" s="3">
-        <v>116.19229999999992</v>
+        <v>157.44189999999992</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3">
-        <v>116.19229999999992</v>
+        <v>157.44189999999992</v>
       </c>
       <c r="P15" s="3">
-        <v>122.08509999999991</v>
+        <v>151.54909999999992</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>127.97789999999992</v>
+        <v>145.65629999999993</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="3">
+        <v>145.65629999999993</v>
+      </c>
+      <c r="V15" s="3">
+        <v>139.76349999999991</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>139.76349999999991</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>133.87069999999991</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>133.87069999999991</v>
+      </c>
+      <c r="AB15" s="3">
         <v>127.97789999999992</v>
       </c>
-      <c r="V15" s="3">
-        <v>133.87069999999991</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="3">
-        <v>133.87069999999991</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>139.76349999999991</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>139.76349999999991</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>145.65629999999993</v>
-      </c>
       <c r="AC15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="3">
-        <v>151.54909999999992</v>
+        <v>122.08509999999991</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="3">
-        <v>151.54909999999992</v>
+        <v>122.08509999999991</v>
       </c>
       <c r="AH15" s="3">
-        <v>157.44189999999992</v>
+        <v>116.19229999999992</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="3">
-        <v>157.44189999999992</v>
+        <v>116.19229999999992</v>
       </c>
       <c r="AK15" s="3">
-        <v>163.33469999999991</v>
+        <v>110.29949999999991</v>
       </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="3">
-        <v>163.33469999999991</v>
+        <v>110.29949999999991</v>
       </c>
       <c r="AN15" s="3">
-        <v>169.22749999999991</v>
+        <v>104.40669999999992</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>90.246199999999916</v>
+        <v>178.6381999999999</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>90.246199999999916</v>
+        <v>178.6381999999999</v>
       </c>
       <c r="D16" s="3">
-        <v>96.138999999999911</v>
+        <v>172.7453999999999</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3">
-        <v>96.138999999999911</v>
+        <v>172.7453999999999</v>
       </c>
       <c r="G16" s="3">
-        <v>102.03179999999992</v>
+        <v>166.85259999999991</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3">
-        <v>102.03179999999992</v>
+        <v>166.85259999999991</v>
       </c>
       <c r="J16" s="3">
-        <v>107.92459999999991</v>
+        <v>160.95979999999992</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>107.92459999999991</v>
+        <v>160.95979999999992</v>
       </c>
       <c r="M16" s="3">
-        <v>113.81739999999992</v>
+        <v>155.06699999999992</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="3">
-        <v>113.81739999999992</v>
+        <v>155.06699999999992</v>
       </c>
       <c r="P16" s="3">
-        <v>119.71019999999992</v>
+        <v>149.17419999999993</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3">
-        <v>125.60299999999992</v>
+        <v>143.28139999999991</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="3">
+        <v>143.28139999999991</v>
+      </c>
+      <c r="V16" s="3">
+        <v>137.38859999999991</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>137.38859999999991</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>131.49579999999992</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>131.49579999999992</v>
+      </c>
+      <c r="AB16" s="3">
         <v>125.60299999999992</v>
       </c>
-      <c r="V16" s="3">
-        <v>131.49579999999992</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="3">
-        <v>131.49579999999992</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>137.38859999999991</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>137.38859999999991</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>143.28139999999991</v>
-      </c>
       <c r="AC16" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="3">
-        <v>149.17419999999993</v>
+        <v>119.71019999999992</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="3">
-        <v>149.17419999999993</v>
+        <v>119.71019999999992</v>
       </c>
       <c r="AH16" s="3">
-        <v>155.06699999999992</v>
+        <v>113.81739999999992</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="3">
-        <v>155.06699999999992</v>
+        <v>113.81739999999992</v>
       </c>
       <c r="AK16" s="3">
-        <v>160.95979999999992</v>
+        <v>107.92459999999991</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="3">
-        <v>160.95979999999992</v>
+        <v>107.92459999999991</v>
       </c>
       <c r="AN16" s="3">
-        <v>166.85259999999991</v>
+        <v>102.03179999999992</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>87.87129999999992</v>
+        <v>176.2632999999999</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>93.764099999999914</v>
+        <v>170.37049999999991</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
-        <v>93.764099999999914</v>
+        <v>170.37049999999991</v>
       </c>
       <c r="G17" s="3">
-        <v>99.656899999999922</v>
+        <v>164.47769999999991</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3">
-        <v>99.656899999999922</v>
+        <v>164.47769999999991</v>
       </c>
       <c r="J17" s="3">
-        <v>105.54969999999992</v>
+        <v>158.58489999999992</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>111.44249999999992</v>
+        <v>152.69209999999993</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="3">
-        <v>111.44249999999992</v>
+        <v>152.69209999999993</v>
       </c>
       <c r="P17" s="3">
-        <v>117.33529999999992</v>
+        <v>146.79929999999993</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>123.22809999999993</v>
+        <v>140.90649999999994</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>135.01369999999991</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>135.01369999999991</v>
+      </c>
+      <c r="Y17" s="3">
         <v>129.12089999999992</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>129.12089999999992</v>
       </c>
-      <c r="Y17" s="3">
-        <v>135.01369999999991</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>135.01369999999991</v>
-      </c>
       <c r="AB17" s="3">
-        <v>140.90649999999994</v>
+        <v>123.22809999999993</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
-        <v>146.79929999999993</v>
+        <v>117.33529999999992</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="3">
-        <v>146.79929999999993</v>
+        <v>117.33529999999992</v>
       </c>
       <c r="AH17" s="3">
-        <v>152.69209999999993</v>
+        <v>111.44249999999992</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="3">
-        <v>152.69209999999993</v>
+        <v>111.44249999999992</v>
       </c>
       <c r="AK17" s="3">
-        <v>158.58489999999992</v>
+        <v>105.54969999999992</v>
       </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="3">
-        <v>158.58489999999992</v>
+        <v>105.54969999999992</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>85.496399999999923</v>
+        <v>173.8883999999999</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
-        <v>85.496399999999923</v>
+        <v>173.8883999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>91.389199999999917</v>
+        <v>167.99559999999991</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3">
-        <v>91.389199999999917</v>
+        <v>167.99559999999991</v>
       </c>
       <c r="G18" s="3">
-        <v>97.281999999999925</v>
+        <v>162.10279999999992</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3">
-        <v>97.281999999999925</v>
+        <v>162.10279999999992</v>
       </c>
       <c r="J18" s="3">
-        <v>103.17479999999992</v>
+        <v>156.20999999999992</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3">
-        <v>103.17479999999992</v>
+        <v>156.20999999999992</v>
       </c>
       <c r="M18" s="3">
-        <v>109.06759999999993</v>
+        <v>150.31719999999993</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3">
-        <v>109.06759999999993</v>
+        <v>150.31719999999993</v>
       </c>
       <c r="P18" s="3">
-        <v>114.96039999999992</v>
+        <v>144.42439999999993</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>120.85319999999993</v>
+        <v>138.53159999999991</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="3">
+        <v>138.53159999999991</v>
+      </c>
+      <c r="V18" s="3">
+        <v>132.63879999999992</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>132.63879999999992</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>126.74599999999992</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>126.74599999999992</v>
+      </c>
+      <c r="AB18" s="3">
         <v>120.85319999999993</v>
       </c>
-      <c r="V18" s="3">
-        <v>126.74599999999992</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X18" s="3">
-        <v>126.74599999999992</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>132.63879999999992</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>132.63879999999992</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>138.53159999999991</v>
-      </c>
       <c r="AC18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="3">
-        <v>144.42439999999993</v>
+        <v>114.96039999999992</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="3">
-        <v>144.42439999999993</v>
+        <v>114.96039999999992</v>
       </c>
       <c r="AH18" s="3">
-        <v>150.31719999999993</v>
+        <v>109.06759999999993</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="3">
-        <v>150.31719999999993</v>
+        <v>109.06759999999993</v>
       </c>
       <c r="AK18" s="3">
-        <v>156.20999999999992</v>
+        <v>103.17479999999992</v>
       </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="3">
-        <v>156.20999999999992</v>
+        <v>103.17479999999992</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>83.121499999999926</v>
+        <v>171.51349999999991</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
-        <v>83.121499999999926</v>
+        <v>171.51349999999991</v>
       </c>
       <c r="D19" s="3">
-        <v>89.01429999999992</v>
+        <v>165.62069999999991</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3">
-        <v>89.01429999999992</v>
+        <v>165.62069999999991</v>
       </c>
       <c r="G19" s="3">
-        <v>94.907099999999929</v>
+        <v>159.72789999999992</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="3">
-        <v>94.907099999999929</v>
+        <v>159.72789999999992</v>
       </c>
       <c r="J19" s="3">
-        <v>100.79989999999992</v>
+        <v>153.83509999999993</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3">
-        <v>100.79989999999992</v>
+        <v>153.83509999999993</v>
       </c>
       <c r="M19" s="3">
-        <v>106.69269999999993</v>
+        <v>147.94229999999993</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3">
-        <v>106.69269999999993</v>
+        <v>147.94229999999993</v>
       </c>
       <c r="P19" s="3">
-        <v>112.58549999999993</v>
+        <v>142.04949999999994</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="3">
-        <v>118.47829999999993</v>
+        <v>136.15669999999994</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="3">
+        <v>136.15669999999994</v>
+      </c>
+      <c r="V19" s="3">
+        <v>130.26389999999992</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>130.26389999999992</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>124.37109999999993</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>124.37109999999993</v>
+      </c>
+      <c r="AB19" s="3">
         <v>118.47829999999993</v>
       </c>
-      <c r="V19" s="3">
-        <v>124.37109999999993</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="3">
-        <v>124.37109999999993</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>130.26389999999992</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>130.26389999999992</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>136.15669999999994</v>
-      </c>
       <c r="AC19" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="3">
-        <v>142.04949999999994</v>
+        <v>112.58549999999993</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="3">
-        <v>142.04949999999994</v>
+        <v>112.58549999999993</v>
       </c>
       <c r="AH19" s="3">
-        <v>147.94229999999993</v>
+        <v>106.69269999999993</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="3">
-        <v>147.94229999999993</v>
+        <v>106.69269999999993</v>
       </c>
       <c r="AK19" s="3">
-        <v>153.83509999999993</v>
+        <v>100.79989999999992</v>
       </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="3">
-        <v>153.83509999999993</v>
+        <v>100.79989999999992</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>80.74659999999993</v>
+        <v>169.13859999999991</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
-        <v>80.74659999999993</v>
+        <v>169.13859999999991</v>
       </c>
       <c r="D20" s="3">
-        <v>86.639399999999924</v>
+        <v>163.24579999999992</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3">
-        <v>86.639399999999924</v>
+        <v>163.24579999999992</v>
       </c>
       <c r="G20" s="3">
-        <v>92.532199999999932</v>
+        <v>157.35299999999992</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3">
-        <v>92.532199999999932</v>
+        <v>157.35299999999992</v>
       </c>
       <c r="J20" s="3">
-        <v>98.424999999999926</v>
+        <v>151.46019999999993</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3">
-        <v>98.424999999999926</v>
+        <v>151.46019999999993</v>
       </c>
       <c r="M20" s="3">
-        <v>104.31779999999993</v>
+        <v>145.56739999999994</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="3">
-        <v>104.31779999999993</v>
+        <v>145.56739999999994</v>
       </c>
       <c r="P20" s="3">
-        <v>110.21059999999993</v>
+        <v>139.67459999999994</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>116.10339999999994</v>
+        <v>133.78179999999992</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="3">
+        <v>133.78179999999992</v>
+      </c>
+      <c r="V20" s="3">
+        <v>127.88899999999992</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>127.88899999999992</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>121.99619999999993</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>121.99619999999993</v>
+      </c>
+      <c r="AB20" s="3">
         <v>116.10339999999994</v>
       </c>
-      <c r="V20" s="3">
-        <v>121.99619999999993</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" s="3">
-        <v>121.99619999999993</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>127.88899999999992</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>127.88899999999992</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>133.78179999999992</v>
-      </c>
       <c r="AC20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
-        <v>139.67459999999994</v>
+        <v>110.21059999999993</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="3">
-        <v>139.67459999999994</v>
+        <v>110.21059999999993</v>
       </c>
       <c r="AH20" s="3">
-        <v>145.56739999999994</v>
+        <v>104.31779999999993</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="3">
-        <v>145.56739999999994</v>
+        <v>104.31779999999993</v>
       </c>
       <c r="AK20" s="3">
-        <v>151.46019999999993</v>
+        <v>98.424999999999926</v>
       </c>
       <c r="AL20" s="2"/>
       <c r="AM20" s="3">
-        <v>151.46019999999993</v>
+        <v>98.424999999999926</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>78.371699999999933</v>
+        <v>166.76369999999991</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
-        <v>78.371699999999933</v>
+        <v>166.76369999999991</v>
       </c>
       <c r="D21" s="3">
-        <v>84.264499999999927</v>
+        <v>160.87089999999992</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
-        <v>84.264499999999927</v>
+        <v>160.87089999999992</v>
       </c>
       <c r="G21" s="3">
-        <v>90.157299999999935</v>
+        <v>154.97809999999993</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3">
-        <v>90.157299999999935</v>
+        <v>154.97809999999993</v>
       </c>
       <c r="J21" s="3">
-        <v>96.050099999999929</v>
+        <v>149.08529999999993</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3">
-        <v>96.050099999999929</v>
+        <v>149.08529999999993</v>
       </c>
       <c r="M21" s="3">
-        <v>101.94289999999994</v>
+        <v>143.19249999999994</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="3">
-        <v>101.94289999999994</v>
+        <v>143.19249999999994</v>
       </c>
       <c r="P21" s="3">
-        <v>107.83569999999993</v>
+        <v>137.29969999999994</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>113.72849999999994</v>
+        <v>131.40689999999995</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="3">
+        <v>131.40689999999995</v>
+      </c>
+      <c r="V21" s="3">
+        <v>125.51409999999993</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>125.51409999999993</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>119.62129999999993</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>119.62129999999993</v>
+      </c>
+      <c r="AB21" s="3">
         <v>113.72849999999994</v>
       </c>
-      <c r="V21" s="3">
-        <v>119.62129999999993</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" s="3">
-        <v>119.62129999999993</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>125.51409999999993</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>125.51409999999993</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>131.40689999999995</v>
-      </c>
       <c r="AC21" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>137.29969999999994</v>
+        <v>107.83569999999993</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="3">
-        <v>137.29969999999994</v>
+        <v>107.83569999999993</v>
       </c>
       <c r="AH21" s="3">
-        <v>143.19249999999994</v>
+        <v>101.94289999999994</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="3">
-        <v>143.19249999999994</v>
+        <v>101.94289999999994</v>
       </c>
       <c r="AK21" s="3">
-        <v>149.08529999999993</v>
+        <v>96.050099999999929</v>
       </c>
       <c r="AL21" s="2"/>
       <c r="AM21" s="3">
-        <v>149.08529999999993</v>
+        <v>96.050099999999929</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>75.996799999999936</v>
+        <v>164.38879999999992</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
-        <v>75.996799999999936</v>
+        <v>164.38879999999992</v>
       </c>
       <c r="D22" s="3">
-        <v>81.88959999999993</v>
+        <v>158.49599999999992</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3">
-        <v>81.88959999999993</v>
+        <v>158.49599999999992</v>
       </c>
       <c r="G22" s="3">
-        <v>87.782399999999939</v>
+        <v>152.60319999999993</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3">
-        <v>87.782399999999939</v>
+        <v>152.60319999999993</v>
       </c>
       <c r="J22" s="3">
-        <v>93.675199999999933</v>
+        <v>146.71039999999994</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3">
-        <v>93.675199999999933</v>
+        <v>146.71039999999994</v>
       </c>
       <c r="M22" s="3">
-        <v>99.567999999999941</v>
+        <v>140.81759999999994</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="3">
-        <v>99.567999999999941</v>
+        <v>140.81759999999994</v>
       </c>
       <c r="P22" s="3">
-        <v>105.46079999999994</v>
+        <v>134.92479999999995</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>111.35359999999994</v>
+        <v>129.03199999999993</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="3">
+        <v>129.03199999999993</v>
+      </c>
+      <c r="V22" s="3">
+        <v>123.13919999999993</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>123.13919999999993</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>117.24639999999994</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>117.24639999999994</v>
+      </c>
+      <c r="AB22" s="3">
         <v>111.35359999999994</v>
       </c>
-      <c r="V22" s="3">
-        <v>117.24639999999994</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X22" s="3">
-        <v>117.24639999999994</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>123.13919999999993</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>123.13919999999993</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>129.03199999999993</v>
-      </c>
       <c r="AC22" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="3">
-        <v>134.92479999999995</v>
+        <v>105.46079999999994</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="3">
-        <v>134.92479999999995</v>
+        <v>105.46079999999994</v>
       </c>
       <c r="AH22" s="3">
-        <v>140.81759999999994</v>
+        <v>99.567999999999941</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <v>140.81759999999994</v>
+        <v>99.567999999999941</v>
       </c>
       <c r="AK22" s="3">
-        <v>146.71039999999994</v>
+        <v>93.675199999999933</v>
       </c>
       <c r="AL22" s="2"/>
       <c r="AM22" s="3">
-        <v>146.71039999999994</v>
+        <v>93.675199999999933</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>73.62189999999994</v>
+        <v>162.01389999999992</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>79.514699999999934</v>
+        <v>156.12109999999993</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3">
-        <v>79.514699999999934</v>
+        <v>156.12109999999993</v>
       </c>
       <c r="G23" s="3">
-        <v>85.407499999999942</v>
+        <v>150.22829999999993</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3">
-        <v>85.407499999999942</v>
+        <v>150.22829999999993</v>
       </c>
       <c r="J23" s="3">
-        <v>91.300299999999936</v>
+        <v>144.33549999999994</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>97.193099999999944</v>
+        <v>138.44269999999995</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3">
-        <v>97.193099999999944</v>
+        <v>138.44269999999995</v>
       </c>
       <c r="P23" s="3">
-        <v>103.08589999999994</v>
+        <v>132.54989999999995</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>108.97869999999995</v>
+        <v>126.65709999999994</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>120.76429999999993</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>120.76429999999993</v>
+      </c>
+      <c r="Y23" s="3">
         <v>114.87149999999994</v>
       </c>
-      <c r="W23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>114.87149999999994</v>
       </c>
-      <c r="Y23" s="3">
-        <v>120.76429999999993</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>120.76429999999993</v>
-      </c>
       <c r="AB23" s="3">
-        <v>126.65709999999994</v>
+        <v>108.97869999999995</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
-        <v>132.54989999999995</v>
+        <v>103.08589999999994</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="3">
-        <v>132.54989999999995</v>
+        <v>103.08589999999994</v>
       </c>
       <c r="AH23" s="3">
-        <v>138.44269999999995</v>
+        <v>97.193099999999944</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="3">
-        <v>138.44269999999995</v>
+        <v>97.193099999999944</v>
       </c>
       <c r="AK23" s="3">
-        <v>144.33549999999994</v>
+        <v>91.300299999999936</v>
       </c>
       <c r="AL23" s="2"/>
       <c r="AM23" s="3">
-        <v>144.33549999999994</v>
+        <v>91.300299999999936</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3303,3542 +3297,3544 @@
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
+      <c r="AS24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>68.872099999999946</v>
+        <v>157.26409999999993</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>68.872099999999946</v>
+        <v>157.26409999999993</v>
       </c>
       <c r="D25" s="3">
-        <v>74.76489999999994</v>
+        <v>151.37129999999993</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3">
-        <v>74.76489999999994</v>
+        <v>151.37129999999993</v>
       </c>
       <c r="G25" s="3">
-        <v>80.657699999999949</v>
+        <v>145.47849999999994</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="3">
-        <v>80.657699999999949</v>
+        <v>145.47849999999994</v>
       </c>
       <c r="J25" s="3">
-        <v>86.550499999999943</v>
+        <v>139.58569999999995</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="3">
-        <v>86.550499999999943</v>
+        <v>139.58569999999995</v>
       </c>
       <c r="M25" s="3">
-        <v>92.443299999999951</v>
+        <v>133.69289999999995</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3">
-        <v>92.443299999999951</v>
+        <v>133.69289999999995</v>
       </c>
       <c r="P25" s="3">
-        <v>98.336099999999945</v>
+        <v>127.80009999999996</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="3">
-        <v>104.22889999999995</v>
+        <v>121.90729999999995</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="3">
+        <v>121.90729999999995</v>
+      </c>
+      <c r="V25" s="3">
+        <v>116.01449999999994</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>116.01449999999994</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>110.12169999999995</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>110.12169999999995</v>
+      </c>
+      <c r="AB25" s="3">
         <v>104.22889999999995</v>
       </c>
-      <c r="V25" s="3">
-        <v>110.12169999999995</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X25" s="3">
-        <v>110.12169999999995</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>116.01449999999994</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>116.01449999999994</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>121.90729999999995</v>
-      </c>
       <c r="AC25" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="3">
-        <v>121.90729999999995</v>
+        <v>104.22889999999995</v>
       </c>
       <c r="AE25" s="3">
-        <v>127.80009999999996</v>
+        <v>98.336099999999945</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="3">
-        <v>127.80009999999996</v>
+        <v>98.336099999999945</v>
       </c>
       <c r="AH25" s="3">
-        <v>133.69289999999995</v>
+        <v>92.443299999999951</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="3">
-        <v>133.69289999999995</v>
+        <v>92.443299999999951</v>
       </c>
       <c r="AK25" s="3">
-        <v>139.58569999999995</v>
+        <v>86.550499999999943</v>
       </c>
       <c r="AL25" s="2"/>
       <c r="AM25" s="3">
-        <v>139.58569999999995</v>
+        <v>86.550499999999943</v>
       </c>
       <c r="AN25" s="3">
-        <v>145.47849999999994</v>
+        <v>80.657699999999949</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="3">
-        <v>145.47849999999994</v>
+        <v>80.657699999999949</v>
       </c>
       <c r="AQ25" s="3">
-        <v>151.37129999999993</v>
+        <v>74.76489999999994</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="3">
-        <v>151.37129999999993</v>
+        <v>74.76489999999994</v>
       </c>
       <c r="AT25" s="3">
-        <v>157.26409999999993</v>
+        <v>68.872099999999946</v>
       </c>
     </row>
     <row r="26" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>66.49719999999995</v>
+        <v>154.88919999999993</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>66.49719999999995</v>
+        <v>154.88919999999993</v>
       </c>
       <c r="D26" s="3">
-        <v>72.389999999999944</v>
+        <v>148.99639999999994</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3">
-        <v>72.389999999999944</v>
+        <v>148.99639999999994</v>
       </c>
       <c r="G26" s="3">
-        <v>78.282799999999952</v>
+        <v>143.10359999999994</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="3">
-        <v>78.282799999999952</v>
+        <v>143.10359999999994</v>
       </c>
       <c r="J26" s="3">
-        <v>84.175599999999946</v>
+        <v>137.21079999999995</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="3">
-        <v>84.175599999999946</v>
+        <v>137.21079999999995</v>
       </c>
       <c r="M26" s="3">
-        <v>90.068399999999954</v>
+        <v>131.31799999999996</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="3">
-        <v>90.068399999999954</v>
+        <v>131.31799999999996</v>
       </c>
       <c r="P26" s="3">
-        <v>95.961199999999948</v>
+        <v>125.42519999999996</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>101.85399999999996</v>
+        <v>119.53239999999995</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="3">
+        <v>119.53239999999995</v>
+      </c>
+      <c r="V26" s="3">
+        <v>113.63959999999994</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>113.63959999999994</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>107.74679999999995</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>107.74679999999995</v>
+      </c>
+      <c r="AB26" s="3">
         <v>101.85399999999996</v>
       </c>
-      <c r="V26" s="3">
-        <v>107.74679999999995</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X26" s="3">
-        <v>107.74679999999995</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>113.63959999999994</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>113.63959999999994</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>119.53239999999995</v>
-      </c>
       <c r="AC26" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>119.53239999999995</v>
+        <v>101.85399999999996</v>
       </c>
       <c r="AE26" s="3">
-        <v>125.42519999999996</v>
+        <v>95.961199999999948</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="3">
-        <v>125.42519999999996</v>
+        <v>95.961199999999948</v>
       </c>
       <c r="AH26" s="3">
-        <v>131.31799999999996</v>
+        <v>90.068399999999954</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="3">
-        <v>131.31799999999996</v>
+        <v>90.068399999999954</v>
       </c>
       <c r="AK26" s="3">
-        <v>137.21079999999995</v>
+        <v>84.175599999999946</v>
       </c>
       <c r="AL26" s="2"/>
       <c r="AM26" s="3">
-        <v>137.21079999999995</v>
+        <v>84.175599999999946</v>
       </c>
       <c r="AN26" s="3">
-        <v>143.10359999999994</v>
+        <v>78.282799999999952</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="3">
-        <v>143.10359999999994</v>
+        <v>78.282799999999952</v>
       </c>
       <c r="AQ26" s="3">
-        <v>148.99639999999994</v>
+        <v>72.389999999999944</v>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="3">
-        <v>148.99639999999994</v>
+        <v>72.389999999999944</v>
       </c>
       <c r="AT26" s="3">
-        <v>154.88919999999993</v>
+        <v>66.49719999999995</v>
       </c>
     </row>
     <row r="27" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>64.122299999999953</v>
+        <v>152.51429999999993</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
-        <v>64.122299999999953</v>
+        <v>152.51429999999993</v>
       </c>
       <c r="D27" s="3">
-        <v>70.015099999999947</v>
+        <v>146.62149999999994</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3">
-        <v>70.015099999999947</v>
+        <v>146.62149999999994</v>
       </c>
       <c r="G27" s="3">
-        <v>75.907899999999955</v>
+        <v>140.72869999999995</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="3">
-        <v>75.907899999999955</v>
+        <v>140.72869999999995</v>
       </c>
       <c r="J27" s="3">
-        <v>81.800699999999949</v>
+        <v>134.83589999999995</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="3">
-        <v>81.800699999999949</v>
+        <v>134.83589999999995</v>
       </c>
       <c r="M27" s="3">
-        <v>87.693499999999958</v>
+        <v>128.94309999999996</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="3">
-        <v>87.693499999999958</v>
+        <v>128.94309999999996</v>
       </c>
       <c r="P27" s="3">
-        <v>93.586299999999952</v>
+        <v>123.05029999999996</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>99.47909999999996</v>
+        <v>117.15749999999996</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="3">
+        <v>117.15749999999996</v>
+      </c>
+      <c r="V27" s="3">
+        <v>111.26469999999995</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>111.26469999999995</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>105.37189999999995</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>105.37189999999995</v>
+      </c>
+      <c r="AB27" s="3">
         <v>99.47909999999996</v>
       </c>
-      <c r="V27" s="3">
-        <v>105.37189999999995</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X27" s="3">
-        <v>105.37189999999995</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>111.26469999999995</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>111.26469999999995</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>117.15749999999996</v>
-      </c>
       <c r="AC27" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>117.15749999999996</v>
+        <v>99.47909999999996</v>
       </c>
       <c r="AE27" s="3">
-        <v>123.05029999999996</v>
+        <v>93.586299999999952</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="3">
-        <v>123.05029999999996</v>
+        <v>93.586299999999952</v>
       </c>
       <c r="AH27" s="3">
-        <v>128.94309999999996</v>
+        <v>87.693499999999958</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <v>128.94309999999996</v>
+        <v>87.693499999999958</v>
       </c>
       <c r="AK27" s="3">
-        <v>134.83589999999995</v>
+        <v>81.800699999999949</v>
       </c>
       <c r="AL27" s="2"/>
       <c r="AM27" s="3">
-        <v>134.83589999999995</v>
+        <v>81.800699999999949</v>
       </c>
       <c r="AN27" s="3">
-        <v>140.72869999999995</v>
+        <v>75.907899999999955</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="3">
-        <v>140.72869999999995</v>
+        <v>75.907899999999955</v>
       </c>
       <c r="AQ27" s="3">
-        <v>146.62149999999994</v>
+        <v>70.015099999999947</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="3">
-        <v>146.62149999999994</v>
+        <v>70.015099999999947</v>
       </c>
       <c r="AT27" s="3">
-        <v>152.51429999999993</v>
+        <v>64.122299999999953</v>
       </c>
     </row>
     <row r="28" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>61.747399999999956</v>
+        <v>150.13939999999994</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
-        <v>61.747399999999956</v>
+        <v>150.13939999999994</v>
       </c>
       <c r="D28" s="3">
-        <v>67.64019999999995</v>
+        <v>144.24659999999994</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3">
-        <v>67.64019999999995</v>
+        <v>144.24659999999994</v>
       </c>
       <c r="G28" s="3">
-        <v>73.532999999999959</v>
+        <v>138.35379999999995</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3">
-        <v>73.532999999999959</v>
+        <v>138.35379999999995</v>
       </c>
       <c r="J28" s="3">
-        <v>79.425799999999953</v>
+        <v>132.46099999999996</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="3">
-        <v>79.425799999999953</v>
+        <v>132.46099999999996</v>
       </c>
       <c r="M28" s="3">
-        <v>85.318599999999961</v>
+        <v>126.56819999999996</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3">
-        <v>85.318599999999961</v>
+        <v>126.56819999999996</v>
       </c>
       <c r="P28" s="3">
-        <v>91.211399999999955</v>
+        <v>120.67539999999997</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3">
-        <v>97.104199999999963</v>
+        <v>114.78259999999996</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="3">
+        <v>114.78259999999996</v>
+      </c>
+      <c r="V28" s="3">
+        <v>108.88979999999995</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>108.88979999999995</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>102.99699999999996</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>102.99699999999996</v>
+      </c>
+      <c r="AB28" s="3">
         <v>97.104199999999963</v>
       </c>
-      <c r="V28" s="3">
-        <v>102.99699999999996</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X28" s="3">
-        <v>102.99699999999996</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>108.88979999999995</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>108.88979999999995</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>114.78259999999996</v>
-      </c>
       <c r="AC28" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
-        <v>114.78259999999996</v>
+        <v>97.104199999999963</v>
       </c>
       <c r="AE28" s="3">
-        <v>120.67539999999997</v>
+        <v>91.211399999999955</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="3">
-        <v>120.67539999999997</v>
+        <v>91.211399999999955</v>
       </c>
       <c r="AH28" s="3">
-        <v>126.56819999999996</v>
+        <v>85.318599999999961</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="3">
-        <v>126.56819999999996</v>
+        <v>85.318599999999961</v>
       </c>
       <c r="AK28" s="3">
-        <v>132.46099999999996</v>
+        <v>79.425799999999953</v>
       </c>
       <c r="AL28" s="2"/>
       <c r="AM28" s="3">
-        <v>132.46099999999996</v>
+        <v>79.425799999999953</v>
       </c>
       <c r="AN28" s="3">
-        <v>138.35379999999995</v>
+        <v>73.532999999999959</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="3">
-        <v>138.35379999999995</v>
+        <v>73.532999999999959</v>
       </c>
       <c r="AQ28" s="3">
-        <v>144.24659999999994</v>
+        <v>67.64019999999995</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="3">
-        <v>144.24659999999994</v>
+        <v>67.64019999999995</v>
       </c>
       <c r="AT28" s="3">
-        <v>150.13939999999994</v>
+        <v>61.747399999999956</v>
       </c>
     </row>
     <row r="29" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>59.37249999999996</v>
+        <v>147.76449999999994</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>65.265299999999954</v>
+        <v>141.87169999999995</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3">
-        <v>65.265299999999954</v>
+        <v>141.87169999999995</v>
       </c>
       <c r="G29" s="3">
-        <v>71.158099999999962</v>
+        <v>135.97889999999995</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3">
-        <v>71.158099999999962</v>
+        <v>135.97889999999995</v>
       </c>
       <c r="J29" s="3">
-        <v>77.050899999999956</v>
+        <v>130.08609999999996</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>82.943699999999964</v>
+        <v>124.19329999999997</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3">
-        <v>82.943699999999964</v>
+        <v>124.19329999999997</v>
       </c>
       <c r="P29" s="3">
-        <v>88.836499999999958</v>
+        <v>118.30049999999997</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="3">
-        <v>94.729299999999967</v>
+        <v>112.40769999999996</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>106.51489999999995</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>106.51489999999995</v>
+      </c>
+      <c r="Y29" s="3">
         <v>100.62209999999996</v>
       </c>
-      <c r="W29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>100.62209999999996</v>
       </c>
-      <c r="Y29" s="3">
-        <v>106.51489999999995</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>106.51489999999995</v>
-      </c>
       <c r="AB29" s="3">
-        <v>112.40769999999996</v>
+        <v>94.729299999999967</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="3">
-        <v>118.30049999999997</v>
+        <v>88.836499999999958</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="3">
-        <v>118.30049999999997</v>
+        <v>88.836499999999958</v>
       </c>
       <c r="AH29" s="3">
-        <v>124.19329999999997</v>
+        <v>82.943699999999964</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="3">
-        <v>124.19329999999997</v>
+        <v>82.943699999999964</v>
       </c>
       <c r="AK29" s="3">
-        <v>130.08609999999996</v>
+        <v>77.050899999999956</v>
       </c>
       <c r="AL29" s="2"/>
       <c r="AM29" s="3">
-        <v>130.08609999999996</v>
+        <v>77.050899999999956</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="3">
-        <v>135.97889999999995</v>
+        <v>71.158099999999962</v>
       </c>
       <c r="AQ29" s="3">
-        <v>141.87169999999995</v>
+        <v>65.265299999999954</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="3">
-        <v>141.87169999999995</v>
+        <v>65.265299999999954</v>
       </c>
       <c r="AT29" s="3">
-        <v>147.76449999999994</v>
+        <v>59.37249999999996</v>
       </c>
     </row>
     <row r="30" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>56.997599999999963</v>
+        <v>145.38959999999994</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3">
-        <v>56.997599999999963</v>
+        <v>145.38959999999994</v>
       </c>
       <c r="D30" s="3">
-        <v>62.890399999999964</v>
+        <v>139.49679999999995</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3">
-        <v>62.890399999999964</v>
+        <v>139.49679999999995</v>
       </c>
       <c r="G30" s="3">
-        <v>68.783199999999965</v>
+        <v>133.60399999999996</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="3">
-        <v>68.783199999999965</v>
+        <v>133.60399999999996</v>
       </c>
       <c r="J30" s="3">
-        <v>74.675999999999959</v>
+        <v>127.71119999999996</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3">
-        <v>74.675999999999959</v>
+        <v>127.71119999999996</v>
       </c>
       <c r="M30" s="3">
-        <v>80.568799999999968</v>
+        <v>121.81839999999997</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="3">
-        <v>80.568799999999968</v>
+        <v>121.81839999999997</v>
       </c>
       <c r="P30" s="3">
-        <v>86.461599999999962</v>
+        <v>115.92559999999997</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" s="3">
-        <v>92.35439999999997</v>
+        <v>110.03279999999997</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="3">
+        <v>110.03279999999997</v>
+      </c>
+      <c r="V30" s="3">
+        <v>104.13999999999996</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>104.13999999999996</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>98.247199999999964</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>98.247199999999964</v>
+      </c>
+      <c r="AB30" s="3">
         <v>92.35439999999997</v>
       </c>
-      <c r="V30" s="3">
-        <v>98.247199999999964</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X30" s="3">
-        <v>98.247199999999964</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>104.13999999999996</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>104.13999999999996</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>110.03279999999997</v>
-      </c>
       <c r="AC30" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="3">
-        <v>110.03279999999997</v>
+        <v>92.35439999999997</v>
       </c>
       <c r="AE30" s="3">
-        <v>115.92559999999997</v>
+        <v>86.461599999999962</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="3">
-        <v>115.92559999999997</v>
+        <v>86.461599999999962</v>
       </c>
       <c r="AH30" s="3">
-        <v>121.81839999999997</v>
+        <v>80.568799999999968</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="3">
-        <v>121.81839999999997</v>
+        <v>80.568799999999968</v>
       </c>
       <c r="AK30" s="3">
-        <v>127.71119999999996</v>
+        <v>74.675999999999959</v>
       </c>
       <c r="AL30" s="2"/>
       <c r="AM30" s="3">
-        <v>127.71119999999996</v>
+        <v>74.675999999999959</v>
       </c>
       <c r="AN30" s="3">
-        <v>133.60399999999996</v>
+        <v>68.783199999999965</v>
       </c>
       <c r="AO30" s="2"/>
       <c r="AP30" s="3">
-        <v>133.60399999999996</v>
+        <v>68.783199999999965</v>
       </c>
       <c r="AQ30" s="3">
-        <v>139.49679999999995</v>
+        <v>62.890399999999964</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="3">
-        <v>139.49679999999995</v>
+        <v>62.890399999999964</v>
       </c>
       <c r="AT30" s="3">
-        <v>145.38959999999994</v>
+        <v>56.997599999999963</v>
       </c>
     </row>
     <row r="31" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>54.622699999999966</v>
+        <v>143.01469999999995</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3">
-        <v>54.622699999999966</v>
+        <v>143.01469999999995</v>
       </c>
       <c r="D31" s="3">
-        <v>60.515499999999967</v>
+        <v>137.12189999999995</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3">
-        <v>60.515499999999967</v>
+        <v>137.12189999999995</v>
       </c>
       <c r="G31" s="3">
-        <v>66.408299999999969</v>
+        <v>131.22909999999996</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="3">
-        <v>66.408299999999969</v>
+        <v>131.22909999999996</v>
       </c>
       <c r="J31" s="3">
-        <v>72.301099999999963</v>
+        <v>125.33629999999997</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3">
-        <v>72.301099999999963</v>
+        <v>125.33629999999997</v>
       </c>
       <c r="M31" s="3">
-        <v>78.193899999999971</v>
+        <v>119.44349999999997</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="3">
-        <v>78.193899999999971</v>
+        <v>119.44349999999997</v>
       </c>
       <c r="P31" s="3">
-        <v>84.086699999999965</v>
+        <v>113.55069999999998</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31" s="3">
-        <v>89.979499999999973</v>
+        <v>107.65789999999997</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="3">
+        <v>107.65789999999997</v>
+      </c>
+      <c r="V31" s="3">
+        <v>101.76509999999996</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>101.76509999999996</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>95.872299999999967</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>95.872299999999967</v>
+      </c>
+      <c r="AB31" s="3">
         <v>89.979499999999973</v>
       </c>
-      <c r="V31" s="3">
-        <v>95.872299999999967</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31" s="3">
-        <v>95.872299999999967</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>101.76509999999996</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>101.76509999999996</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>107.65789999999997</v>
-      </c>
       <c r="AC31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="3">
-        <v>107.65789999999997</v>
+        <v>89.979499999999973</v>
       </c>
       <c r="AE31" s="3">
-        <v>113.55069999999998</v>
+        <v>84.086699999999965</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="3">
-        <v>113.55069999999998</v>
+        <v>84.086699999999965</v>
       </c>
       <c r="AH31" s="3">
-        <v>119.44349999999997</v>
+        <v>78.193899999999971</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="3">
-        <v>119.44349999999997</v>
+        <v>78.193899999999971</v>
       </c>
       <c r="AK31" s="3">
-        <v>125.33629999999997</v>
+        <v>72.301099999999963</v>
       </c>
       <c r="AL31" s="2"/>
       <c r="AM31" s="3">
-        <v>125.33629999999997</v>
+        <v>72.301099999999963</v>
       </c>
       <c r="AN31" s="3">
-        <v>131.22909999999996</v>
+        <v>66.408299999999969</v>
       </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="3">
-        <v>131.22909999999996</v>
+        <v>66.408299999999969</v>
       </c>
       <c r="AQ31" s="3">
-        <v>137.12189999999995</v>
+        <v>60.515499999999967</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="3">
-        <v>137.12189999999995</v>
+        <v>60.515499999999967</v>
       </c>
       <c r="AT31" s="3">
-        <v>143.01469999999995</v>
+        <v>54.622699999999966</v>
       </c>
     </row>
     <row r="32" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>52.24779999999997</v>
+        <v>140.63979999999995</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3">
-        <v>52.24779999999997</v>
+        <v>140.63979999999995</v>
       </c>
       <c r="D32" s="3">
-        <v>58.140599999999971</v>
+        <v>134.74699999999996</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3">
-        <v>58.140599999999971</v>
+        <v>134.74699999999996</v>
       </c>
       <c r="G32" s="3">
-        <v>64.033399999999972</v>
+        <v>128.85419999999996</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="3">
-        <v>64.033399999999972</v>
+        <v>128.85419999999996</v>
       </c>
       <c r="J32" s="3">
-        <v>69.926199999999966</v>
+        <v>122.96139999999997</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="3">
-        <v>69.926199999999966</v>
+        <v>122.96139999999997</v>
       </c>
       <c r="M32" s="3">
-        <v>75.818999999999974</v>
+        <v>117.06859999999998</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="3">
-        <v>75.818999999999974</v>
+        <v>117.06859999999998</v>
       </c>
       <c r="P32" s="3">
-        <v>81.711799999999968</v>
+        <v>111.17579999999998</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>87.604599999999976</v>
+        <v>105.28299999999997</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="3">
+        <v>105.28299999999997</v>
+      </c>
+      <c r="V32" s="3">
+        <v>99.390199999999965</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>99.390199999999965</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>93.497399999999971</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>93.497399999999971</v>
+      </c>
+      <c r="AB32" s="3">
         <v>87.604599999999976</v>
       </c>
-      <c r="V32" s="3">
-        <v>93.497399999999971</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X32" s="3">
-        <v>93.497399999999971</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>99.390199999999965</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>99.390199999999965</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>105.28299999999997</v>
-      </c>
       <c r="AC32" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>105.28299999999997</v>
+        <v>87.604599999999976</v>
       </c>
       <c r="AE32" s="3">
-        <v>111.17579999999998</v>
+        <v>81.711799999999968</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="3">
-        <v>111.17579999999998</v>
+        <v>81.711799999999968</v>
       </c>
       <c r="AH32" s="3">
-        <v>117.06859999999998</v>
+        <v>75.818999999999974</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="3">
-        <v>117.06859999999998</v>
+        <v>75.818999999999974</v>
       </c>
       <c r="AK32" s="3">
-        <v>122.96139999999997</v>
+        <v>69.926199999999966</v>
       </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="3">
-        <v>122.96139999999997</v>
+        <v>69.926199999999966</v>
       </c>
       <c r="AN32" s="3">
-        <v>128.85419999999996</v>
+        <v>64.033399999999972</v>
       </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="3">
-        <v>128.85419999999996</v>
+        <v>64.033399999999972</v>
       </c>
       <c r="AQ32" s="3">
-        <v>134.74699999999996</v>
+        <v>58.140599999999971</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="3">
-        <v>134.74699999999996</v>
+        <v>58.140599999999971</v>
       </c>
       <c r="AT32" s="3">
-        <v>140.63979999999995</v>
+        <v>52.24779999999997</v>
       </c>
     </row>
     <row r="33" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>49.872899999999973</v>
+        <v>138.26489999999995</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3">
-        <v>49.872899999999973</v>
+        <v>138.26489999999995</v>
       </c>
       <c r="D33" s="3">
-        <v>55.765699999999974</v>
+        <v>132.37209999999996</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3">
-        <v>55.765699999999974</v>
+        <v>132.37209999999996</v>
       </c>
       <c r="G33" s="3">
-        <v>61.658499999999975</v>
+        <v>126.47929999999997</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="3">
-        <v>61.658499999999975</v>
+        <v>126.47929999999997</v>
       </c>
       <c r="J33" s="3">
-        <v>67.551299999999969</v>
+        <v>120.58649999999997</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="3">
-        <v>67.551299999999969</v>
+        <v>120.58649999999997</v>
       </c>
       <c r="M33" s="3">
-        <v>73.444099999999978</v>
+        <v>114.69369999999998</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="3">
-        <v>73.444099999999978</v>
+        <v>114.69369999999998</v>
       </c>
       <c r="P33" s="3">
-        <v>79.336899999999972</v>
+        <v>108.80089999999998</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>85.22969999999998</v>
+        <v>102.90809999999998</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="3">
+        <v>102.90809999999998</v>
+      </c>
+      <c r="V33" s="3">
+        <v>97.015299999999968</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>97.015299999999968</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>91.122499999999974</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>91.122499999999974</v>
+      </c>
+      <c r="AB33" s="3">
         <v>85.22969999999998</v>
       </c>
-      <c r="V33" s="3">
-        <v>91.122499999999974</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X33" s="3">
-        <v>91.122499999999974</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>97.015299999999968</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>97.015299999999968</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>102.90809999999998</v>
-      </c>
       <c r="AC33" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="3">
-        <v>102.90809999999998</v>
+        <v>85.22969999999998</v>
       </c>
       <c r="AE33" s="3">
-        <v>108.80089999999998</v>
+        <v>79.336899999999972</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="3">
-        <v>108.80089999999998</v>
+        <v>79.336899999999972</v>
       </c>
       <c r="AH33" s="3">
-        <v>114.69369999999998</v>
+        <v>73.444099999999978</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="3">
-        <v>114.69369999999998</v>
+        <v>73.444099999999978</v>
       </c>
       <c r="AK33" s="3">
-        <v>120.58649999999997</v>
+        <v>67.551299999999969</v>
       </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="3">
-        <v>120.58649999999997</v>
+        <v>67.551299999999969</v>
       </c>
       <c r="AN33" s="3">
-        <v>126.47929999999997</v>
+        <v>61.658499999999975</v>
       </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="3">
-        <v>126.47929999999997</v>
+        <v>61.658499999999975</v>
       </c>
       <c r="AQ33" s="3">
-        <v>132.37209999999996</v>
+        <v>55.765699999999974</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="3">
-        <v>132.37209999999996</v>
+        <v>55.765699999999974</v>
       </c>
       <c r="AT33" s="3">
-        <v>138.26489999999995</v>
+        <v>49.872899999999973</v>
       </c>
     </row>
     <row r="34" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>47.497999999999976</v>
+        <v>135.88999999999996</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3">
-        <v>47.497999999999976</v>
+        <v>135.88999999999996</v>
       </c>
       <c r="D34" s="3">
-        <v>53.390799999999977</v>
+        <v>129.99719999999996</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3">
-        <v>53.390799999999977</v>
+        <v>129.99719999999996</v>
       </c>
       <c r="G34" s="3">
-        <v>59.283599999999979</v>
+        <v>124.10439999999997</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="3">
-        <v>59.283599999999979</v>
+        <v>124.10439999999997</v>
       </c>
       <c r="J34" s="3">
-        <v>65.176399999999973</v>
+        <v>118.21159999999998</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="3">
-        <v>65.176399999999973</v>
+        <v>118.21159999999998</v>
       </c>
       <c r="M34" s="3">
-        <v>71.069199999999981</v>
+        <v>112.31879999999998</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="3">
-        <v>71.069199999999981</v>
+        <v>112.31879999999998</v>
       </c>
       <c r="P34" s="3">
-        <v>76.961999999999975</v>
+        <v>106.42599999999999</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34" s="3">
-        <v>82.854799999999983</v>
+        <v>100.53319999999998</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="3">
+        <v>100.53319999999998</v>
+      </c>
+      <c r="V34" s="3">
+        <v>94.640399999999971</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>94.640399999999971</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>88.747599999999977</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>88.747599999999977</v>
+      </c>
+      <c r="AB34" s="3">
         <v>82.854799999999983</v>
       </c>
-      <c r="V34" s="3">
-        <v>88.747599999999977</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X34" s="3">
-        <v>88.747599999999977</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>94.640399999999971</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>94.640399999999971</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>100.53319999999998</v>
-      </c>
       <c r="AC34" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="3">
-        <v>100.53319999999998</v>
+        <v>82.854799999999983</v>
       </c>
       <c r="AE34" s="3">
-        <v>106.42599999999999</v>
+        <v>76.961999999999975</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="3">
-        <v>106.42599999999999</v>
+        <v>76.961999999999975</v>
       </c>
       <c r="AH34" s="3">
-        <v>112.31879999999998</v>
+        <v>71.069199999999981</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="3">
-        <v>112.31879999999998</v>
+        <v>71.069199999999981</v>
       </c>
       <c r="AK34" s="3">
-        <v>118.21159999999998</v>
+        <v>65.176399999999973</v>
       </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="3">
-        <v>118.21159999999998</v>
+        <v>65.176399999999973</v>
       </c>
       <c r="AN34" s="3">
-        <v>124.10439999999997</v>
+        <v>59.283599999999979</v>
       </c>
       <c r="AO34" s="2"/>
       <c r="AP34" s="3">
-        <v>124.10439999999997</v>
+        <v>59.283599999999979</v>
       </c>
       <c r="AQ34" s="3">
-        <v>129.99719999999996</v>
+        <v>53.390799999999977</v>
       </c>
       <c r="AR34" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="3">
-        <v>129.99719999999996</v>
+        <v>53.390799999999977</v>
       </c>
       <c r="AT34" s="3">
-        <v>135.88999999999996</v>
+        <v>47.497999999999976</v>
       </c>
     </row>
     <row r="35" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>45.12309999999998</v>
+        <v>133.51509999999996</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>51.015899999999981</v>
+        <v>127.62229999999997</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3">
-        <v>51.015899999999981</v>
+        <v>127.62229999999997</v>
       </c>
       <c r="G35" s="3">
-        <v>56.908699999999982</v>
+        <v>121.72949999999997</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="3">
-        <v>56.908699999999982</v>
+        <v>121.72949999999997</v>
       </c>
       <c r="J35" s="3">
-        <v>62.801499999999976</v>
+        <v>115.83669999999998</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>68.694299999999984</v>
+        <v>109.94389999999999</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="3">
-        <v>68.694299999999984</v>
+        <v>109.94389999999999</v>
       </c>
       <c r="P35" s="3">
-        <v>74.587099999999978</v>
+        <v>104.05109999999999</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>80.479899999999986</v>
+        <v>98.158299999999983</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>92.265499999999975</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>92.265499999999975</v>
+      </c>
+      <c r="Y35" s="3">
         <v>86.37269999999998</v>
       </c>
-      <c r="W35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>86.37269999999998</v>
       </c>
-      <c r="Y35" s="3">
-        <v>92.265499999999975</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>92.265499999999975</v>
-      </c>
       <c r="AB35" s="3">
-        <v>98.158299999999983</v>
+        <v>80.479899999999986</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="3">
-        <v>104.05109999999999</v>
+        <v>74.587099999999978</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="3">
-        <v>104.05109999999999</v>
+        <v>74.587099999999978</v>
       </c>
       <c r="AH35" s="3">
-        <v>109.94389999999999</v>
+        <v>68.694299999999984</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="3">
-        <v>109.94389999999999</v>
+        <v>68.694299999999984</v>
       </c>
       <c r="AK35" s="3">
-        <v>115.83669999999998</v>
+        <v>62.801499999999976</v>
       </c>
       <c r="AL35" s="2"/>
       <c r="AM35" s="3">
-        <v>115.83669999999998</v>
+        <v>62.801499999999976</v>
       </c>
       <c r="AN35" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="3">
-        <v>121.72949999999997</v>
+        <v>56.908699999999982</v>
       </c>
       <c r="AQ35" s="3">
-        <v>127.62229999999997</v>
+        <v>51.015899999999981</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="3">
-        <v>127.62229999999997</v>
+        <v>51.015899999999981</v>
       </c>
       <c r="AT35" s="3">
-        <v>133.51509999999996</v>
+        <v>45.12309999999998</v>
       </c>
     </row>
     <row r="36" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>42.748199999999983</v>
+        <v>131.14019999999996</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3">
-        <v>42.748199999999983</v>
+        <v>131.14019999999996</v>
       </c>
       <c r="D36" s="3">
-        <v>48.640999999999984</v>
+        <v>125.24739999999997</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3">
-        <v>48.640999999999984</v>
+        <v>125.24739999999997</v>
       </c>
       <c r="G36" s="3">
-        <v>54.533799999999985</v>
+        <v>119.35459999999998</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="3">
-        <v>54.533799999999985</v>
+        <v>119.35459999999998</v>
       </c>
       <c r="J36" s="3">
-        <v>60.426599999999979</v>
+        <v>113.46179999999998</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="3">
-        <v>60.426599999999979</v>
+        <v>113.46179999999998</v>
       </c>
       <c r="M36" s="3">
-        <v>66.319399999999987</v>
+        <v>107.56899999999999</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="3">
-        <v>66.319399999999987</v>
+        <v>107.56899999999999</v>
       </c>
       <c r="P36" s="3">
-        <v>72.212199999999982</v>
+        <v>101.67619999999999</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="3">
-        <v>78.10499999999999</v>
+        <v>95.783399999999986</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="3">
+        <v>95.783399999999986</v>
+      </c>
+      <c r="V36" s="3">
+        <v>89.890599999999978</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>89.890599999999978</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>83.997799999999984</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>83.997799999999984</v>
+      </c>
+      <c r="AB36" s="3">
         <v>78.10499999999999</v>
       </c>
-      <c r="V36" s="3">
-        <v>83.997799999999984</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X36" s="3">
-        <v>83.997799999999984</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>89.890599999999978</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>89.890599999999978</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>95.783399999999986</v>
-      </c>
       <c r="AC36" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="3">
-        <v>95.783399999999986</v>
+        <v>78.10499999999999</v>
       </c>
       <c r="AE36" s="3">
-        <v>101.67619999999999</v>
+        <v>72.212199999999982</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="3">
-        <v>101.67619999999999</v>
+        <v>72.212199999999982</v>
       </c>
       <c r="AH36" s="3">
-        <v>107.56899999999999</v>
+        <v>66.319399999999987</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="3">
-        <v>107.56899999999999</v>
+        <v>66.319399999999987</v>
       </c>
       <c r="AK36" s="3">
-        <v>113.46179999999998</v>
+        <v>60.426599999999979</v>
       </c>
       <c r="AL36" s="2"/>
       <c r="AM36" s="3">
-        <v>113.46179999999998</v>
+        <v>60.426599999999979</v>
       </c>
       <c r="AN36" s="3">
-        <v>119.35459999999998</v>
+        <v>54.533799999999985</v>
       </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="3">
-        <v>119.35459999999998</v>
+        <v>54.533799999999985</v>
       </c>
       <c r="AQ36" s="3">
-        <v>125.24739999999997</v>
+        <v>48.640999999999984</v>
       </c>
       <c r="AR36" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="3">
-        <v>125.24739999999997</v>
+        <v>48.640999999999984</v>
       </c>
       <c r="AT36" s="3">
-        <v>131.14019999999996</v>
+        <v>42.748199999999983</v>
       </c>
     </row>
     <row r="37" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>40.373299999999986</v>
+        <v>128.76529999999997</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3">
-        <v>40.373299999999986</v>
+        <v>128.76529999999997</v>
       </c>
       <c r="D37" s="3">
-        <v>46.266099999999987</v>
+        <v>122.87249999999997</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3">
-        <v>46.266099999999987</v>
+        <v>122.87249999999997</v>
       </c>
       <c r="G37" s="3">
-        <v>52.158899999999988</v>
+        <v>116.97969999999998</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="3">
-        <v>52.158899999999988</v>
+        <v>116.97969999999998</v>
       </c>
       <c r="J37" s="3">
-        <v>58.051699999999983</v>
+        <v>111.08689999999999</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="3">
-        <v>58.051699999999983</v>
+        <v>111.08689999999999</v>
       </c>
       <c r="M37" s="3">
-        <v>63.944499999999991</v>
+        <v>105.19409999999999</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="3">
-        <v>63.944499999999991</v>
+        <v>105.19409999999999</v>
       </c>
       <c r="P37" s="3">
-        <v>69.837299999999985</v>
+        <v>99.301299999999998</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S37" s="3">
-        <v>75.730099999999993</v>
+        <v>93.408499999999989</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="3">
+        <v>93.408499999999989</v>
+      </c>
+      <c r="V37" s="3">
+        <v>87.515699999999981</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>87.515699999999981</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>81.622899999999987</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>81.622899999999987</v>
+      </c>
+      <c r="AB37" s="3">
         <v>75.730099999999993</v>
       </c>
-      <c r="V37" s="3">
-        <v>81.622899999999987</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X37" s="3">
-        <v>81.622899999999987</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>87.515699999999981</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>87.515699999999981</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>93.408499999999989</v>
-      </c>
       <c r="AC37" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="3">
-        <v>93.408499999999989</v>
+        <v>75.730099999999993</v>
       </c>
       <c r="AE37" s="3">
-        <v>99.301299999999998</v>
+        <v>69.837299999999985</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="3">
-        <v>99.301299999999998</v>
+        <v>69.837299999999985</v>
       </c>
       <c r="AH37" s="3">
-        <v>105.19409999999999</v>
+        <v>63.944499999999991</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="3">
-        <v>105.19409999999999</v>
+        <v>63.944499999999991</v>
       </c>
       <c r="AK37" s="3">
-        <v>111.08689999999999</v>
+        <v>58.051699999999983</v>
       </c>
       <c r="AL37" s="2"/>
       <c r="AM37" s="3">
-        <v>111.08689999999999</v>
+        <v>58.051699999999983</v>
       </c>
       <c r="AN37" s="3">
-        <v>116.97969999999998</v>
+        <v>52.158899999999988</v>
       </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="3">
-        <v>116.97969999999998</v>
+        <v>52.158899999999988</v>
       </c>
       <c r="AQ37" s="3">
-        <v>122.87249999999997</v>
+        <v>46.266099999999987</v>
       </c>
       <c r="AR37" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="3">
-        <v>122.87249999999997</v>
+        <v>46.266099999999987</v>
       </c>
       <c r="AT37" s="3">
-        <v>128.76529999999997</v>
+        <v>40.373299999999986</v>
       </c>
     </row>
     <row r="38" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>37.99839999999999</v>
+        <v>126.39039999999997</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3">
-        <v>37.99839999999999</v>
+        <v>126.39039999999997</v>
       </c>
       <c r="D38" s="3">
-        <v>43.891199999999991</v>
+        <v>120.49759999999998</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3">
-        <v>43.891199999999991</v>
+        <v>120.49759999999998</v>
       </c>
       <c r="G38" s="3">
-        <v>49.783999999999992</v>
+        <v>114.60479999999998</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="3">
-        <v>49.783999999999992</v>
+        <v>114.60479999999998</v>
       </c>
       <c r="J38" s="3">
-        <v>55.676799999999986</v>
+        <v>108.71199999999999</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="3">
-        <v>55.676799999999986</v>
+        <v>108.71199999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>61.569599999999994</v>
+        <v>102.8192</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="3">
-        <v>61.569599999999994</v>
+        <v>102.8192</v>
       </c>
       <c r="P38" s="3">
-        <v>67.462399999999988</v>
+        <v>96.926400000000001</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S38" s="3">
-        <v>73.355199999999996</v>
+        <v>91.033599999999993</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="3">
+        <v>91.033599999999993</v>
+      </c>
+      <c r="V38" s="3">
+        <v>85.140799999999984</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>85.140799999999984</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>79.24799999999999</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>79.24799999999999</v>
+      </c>
+      <c r="AB38" s="3">
         <v>73.355199999999996</v>
       </c>
-      <c r="V38" s="3">
-        <v>79.24799999999999</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X38" s="3">
-        <v>79.24799999999999</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>85.140799999999984</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>85.140799999999984</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>91.033599999999993</v>
-      </c>
       <c r="AC38" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="3">
-        <v>91.033599999999993</v>
+        <v>73.355199999999996</v>
       </c>
       <c r="AE38" s="3">
-        <v>96.926400000000001</v>
+        <v>67.462399999999988</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="3">
-        <v>96.926400000000001</v>
+        <v>67.462399999999988</v>
       </c>
       <c r="AH38" s="3">
-        <v>102.8192</v>
+        <v>61.569599999999994</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="3">
-        <v>102.8192</v>
+        <v>61.569599999999994</v>
       </c>
       <c r="AK38" s="3">
-        <v>108.71199999999999</v>
+        <v>55.676799999999986</v>
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="3">
-        <v>108.71199999999999</v>
+        <v>55.676799999999986</v>
       </c>
       <c r="AN38" s="3">
-        <v>114.60479999999998</v>
+        <v>49.783999999999992</v>
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="3">
-        <v>114.60479999999998</v>
+        <v>49.783999999999992</v>
       </c>
       <c r="AQ38" s="3">
-        <v>120.49759999999998</v>
+        <v>43.891199999999991</v>
       </c>
       <c r="AR38" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="3">
-        <v>120.49759999999998</v>
+        <v>43.891199999999991</v>
       </c>
       <c r="AT38" s="3">
-        <v>126.39039999999997</v>
+        <v>37.99839999999999</v>
       </c>
     </row>
     <row r="39" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>35.623499999999993</v>
+        <v>124.01549999999997</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3">
-        <v>35.623499999999993</v>
+        <v>124.01549999999997</v>
       </c>
       <c r="D39" s="3">
-        <v>41.516299999999994</v>
+        <v>118.12269999999998</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3">
-        <v>41.516299999999994</v>
+        <v>118.12269999999998</v>
       </c>
       <c r="G39" s="3">
-        <v>47.409099999999995</v>
+        <v>112.22989999999999</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3">
-        <v>47.409099999999995</v>
+        <v>112.22989999999999</v>
       </c>
       <c r="J39" s="3">
-        <v>53.301899999999989</v>
+        <v>106.33709999999999</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="3">
-        <v>53.301899999999989</v>
+        <v>106.33709999999999</v>
       </c>
       <c r="M39" s="3">
-        <v>59.194699999999997</v>
+        <v>100.4443</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="3">
-        <v>59.194699999999997</v>
+        <v>100.4443</v>
       </c>
       <c r="P39" s="3">
-        <v>65.087499999999991</v>
+        <v>94.551500000000004</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S39" s="3">
-        <v>70.9803</v>
+        <v>88.658699999999996</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="3">
+        <v>88.658699999999996</v>
+      </c>
+      <c r="V39" s="3">
+        <v>82.765899999999988</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>82.765899999999988</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>76.873099999999994</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>76.873099999999994</v>
+      </c>
+      <c r="AB39" s="3">
         <v>70.9803</v>
       </c>
-      <c r="V39" s="3">
-        <v>76.873099999999994</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X39" s="3">
-        <v>76.873099999999994</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>82.765899999999988</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>82.765899999999988</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>88.658699999999996</v>
-      </c>
       <c r="AC39" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="3">
-        <v>88.658699999999996</v>
+        <v>70.9803</v>
       </c>
       <c r="AE39" s="3">
-        <v>94.551500000000004</v>
+        <v>65.087499999999991</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="3">
-        <v>94.551500000000004</v>
+        <v>65.087499999999991</v>
       </c>
       <c r="AH39" s="3">
-        <v>100.4443</v>
+        <v>59.194699999999997</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="3">
-        <v>100.4443</v>
+        <v>59.194699999999997</v>
       </c>
       <c r="AK39" s="3">
-        <v>106.33709999999999</v>
+        <v>53.301899999999989</v>
       </c>
       <c r="AL39" s="2"/>
       <c r="AM39" s="3">
-        <v>106.33709999999999</v>
+        <v>53.301899999999989</v>
       </c>
       <c r="AN39" s="3">
-        <v>112.22989999999999</v>
+        <v>47.409099999999995</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="3">
-        <v>112.22989999999999</v>
+        <v>47.409099999999995</v>
       </c>
       <c r="AQ39" s="3">
-        <v>118.12269999999998</v>
+        <v>41.516299999999994</v>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="3">
-        <v>118.12269999999998</v>
+        <v>41.516299999999994</v>
       </c>
       <c r="AT39" s="3">
-        <v>124.01549999999997</v>
+        <v>35.623499999999993</v>
       </c>
     </row>
     <row r="40" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3">
-        <v>33.248599999999996</v>
+        <v>121.64059999999998</v>
       </c>
       <c r="D40" s="3">
-        <v>39.141399999999997</v>
+        <v>115.74779999999998</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3">
-        <v>39.141399999999997</v>
+        <v>115.74779999999998</v>
       </c>
       <c r="G40" s="3">
-        <v>45.034199999999998</v>
+        <v>109.85499999999999</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="3">
-        <v>45.034199999999998</v>
+        <v>109.85499999999999</v>
       </c>
       <c r="J40" s="3">
-        <v>50.926999999999992</v>
+        <v>103.9622</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="3">
-        <v>50.926999999999992</v>
+        <v>103.9622</v>
       </c>
       <c r="M40" s="3">
-        <v>56.819800000000001</v>
+        <v>98.069400000000002</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="3">
-        <v>56.819800000000001</v>
+        <v>98.069400000000002</v>
       </c>
       <c r="P40" s="3">
-        <v>62.712599999999995</v>
+        <v>92.176600000000008</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S40" s="3">
-        <v>68.605400000000003</v>
+        <v>86.283799999999999</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="3">
+        <v>86.283799999999999</v>
+      </c>
+      <c r="V40" s="3">
+        <v>80.390999999999991</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>80.390999999999991</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>74.498199999999997</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>74.498199999999997</v>
+      </c>
+      <c r="AB40" s="3">
         <v>68.605400000000003</v>
       </c>
-      <c r="V40" s="3">
-        <v>74.498199999999997</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X40" s="3">
-        <v>74.498199999999997</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>80.390999999999991</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>80.390999999999991</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>86.283799999999999</v>
-      </c>
       <c r="AC40" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="3">
-        <v>86.283799999999999</v>
+        <v>68.605400000000003</v>
       </c>
       <c r="AE40" s="3">
-        <v>92.176600000000008</v>
+        <v>62.712599999999995</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="3">
-        <v>92.176600000000008</v>
+        <v>62.712599999999995</v>
       </c>
       <c r="AH40" s="3">
-        <v>98.069400000000002</v>
+        <v>56.819800000000001</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="3">
-        <v>98.069400000000002</v>
+        <v>56.819800000000001</v>
       </c>
       <c r="AK40" s="3">
-        <v>103.9622</v>
+        <v>50.926999999999992</v>
       </c>
       <c r="AL40" s="2"/>
       <c r="AM40" s="3">
-        <v>103.9622</v>
+        <v>50.926999999999992</v>
       </c>
       <c r="AN40" s="3">
-        <v>109.85499999999999</v>
+        <v>45.034199999999998</v>
       </c>
       <c r="AO40" s="2"/>
       <c r="AP40" s="3">
-        <v>109.85499999999999</v>
+        <v>45.034199999999998</v>
       </c>
       <c r="AQ40" s="3">
-        <v>115.74779999999998</v>
+        <v>39.141399999999997</v>
       </c>
       <c r="AR40" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="3">
-        <v>115.74779999999998</v>
+        <v>39.141399999999997</v>
       </c>
       <c r="AT40" s="3">
-        <v>121.64059999999998</v>
+        <v>33.248599999999996</v>
       </c>
     </row>
     <row r="41" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>30.873699999999999</v>
+        <v>119.26569999999998</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>36.766500000000001</v>
+        <v>113.37289999999999</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3">
-        <v>36.766500000000001</v>
+        <v>113.37289999999999</v>
       </c>
       <c r="G41" s="3">
-        <v>42.659300000000002</v>
+        <v>107.48009999999999</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="3">
-        <v>42.659300000000002</v>
+        <v>107.48009999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>48.552099999999996</v>
+        <v>101.5873</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>54.444900000000004</v>
+        <v>95.694500000000005</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="3">
-        <v>54.444900000000004</v>
+        <v>95.694500000000005</v>
       </c>
       <c r="P41" s="3">
-        <v>60.337699999999998</v>
+        <v>89.801700000000011</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>66.230500000000006</v>
+        <v>83.908900000000003</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>78.016099999999994</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>78.016099999999994</v>
+      </c>
+      <c r="Y41" s="3">
         <v>72.1233</v>
       </c>
-      <c r="W41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>72.1233</v>
       </c>
-      <c r="Y41" s="3">
-        <v>78.016099999999994</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>78.016099999999994</v>
-      </c>
       <c r="AB41" s="3">
-        <v>83.908900000000003</v>
+        <v>66.230500000000006</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="3">
-        <v>89.801700000000011</v>
+        <v>60.337699999999998</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="3">
-        <v>89.801700000000011</v>
+        <v>60.337699999999998</v>
       </c>
       <c r="AH41" s="3">
-        <v>95.694500000000005</v>
+        <v>54.444900000000004</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="3">
-        <v>95.694500000000005</v>
+        <v>54.444900000000004</v>
       </c>
       <c r="AK41" s="3">
-        <v>101.5873</v>
+        <v>48.552099999999996</v>
       </c>
       <c r="AL41" s="2"/>
       <c r="AM41" s="3">
-        <v>101.5873</v>
+        <v>48.552099999999996</v>
       </c>
       <c r="AN41" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="2"/>
       <c r="AP41" s="3">
-        <v>107.48009999999999</v>
+        <v>42.659300000000002</v>
       </c>
       <c r="AQ41" s="3">
-        <v>113.37289999999999</v>
+        <v>36.766500000000001</v>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="3">
-        <v>113.37289999999999</v>
+        <v>36.766500000000001</v>
       </c>
       <c r="AT41" s="3">
-        <v>119.26569999999998</v>
+        <v>30.873699999999999</v>
       </c>
     </row>
     <row r="42" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>28.498799999999999</v>
+        <v>116.89079999999998</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3">
-        <v>28.498799999999999</v>
+        <v>116.89079999999998</v>
       </c>
       <c r="D42" s="3">
-        <v>34.391599999999997</v>
+        <v>110.99799999999999</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3">
-        <v>34.391599999999997</v>
+        <v>110.99799999999999</v>
       </c>
       <c r="G42" s="3">
-        <v>40.284399999999998</v>
+        <v>105.1052</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="3">
-        <v>40.284399999999998</v>
+        <v>105.1052</v>
       </c>
       <c r="J42" s="3">
-        <v>46.177199999999999</v>
+        <v>99.212400000000002</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="3">
-        <v>46.177199999999999</v>
+        <v>99.212400000000002</v>
       </c>
       <c r="M42" s="3">
-        <v>52.07</v>
+        <v>93.319600000000008</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="3">
-        <v>52.07</v>
+        <v>93.319600000000008</v>
       </c>
       <c r="P42" s="3">
-        <v>57.962800000000001</v>
+        <v>87.4268</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>63.855599999999995</v>
+        <v>81.534000000000006</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="3">
+        <v>81.534000000000006</v>
+      </c>
+      <c r="V42" s="3">
+        <v>75.641199999999998</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>75.641199999999998</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>69.748400000000004</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>69.748400000000004</v>
+      </c>
+      <c r="AB42" s="3">
         <v>63.855599999999995</v>
       </c>
-      <c r="V42" s="3">
-        <v>69.748400000000004</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X42" s="3">
-        <v>69.748400000000004</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>75.641199999999998</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>75.641199999999998</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>81.534000000000006</v>
-      </c>
       <c r="AC42" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="3">
-        <v>81.534000000000006</v>
+        <v>63.855599999999995</v>
       </c>
       <c r="AE42" s="3">
-        <v>87.4268</v>
+        <v>57.962800000000001</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="3">
-        <v>87.4268</v>
+        <v>57.962800000000001</v>
       </c>
       <c r="AH42" s="3">
-        <v>93.319600000000008</v>
+        <v>52.07</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="3">
-        <v>93.319600000000008</v>
+        <v>52.07</v>
       </c>
       <c r="AK42" s="3">
-        <v>99.212400000000002</v>
+        <v>46.177199999999999</v>
       </c>
       <c r="AL42" s="2"/>
       <c r="AM42" s="3">
-        <v>99.212400000000002</v>
+        <v>46.177199999999999</v>
       </c>
       <c r="AN42" s="3">
-        <v>105.1052</v>
+        <v>40.284399999999998</v>
       </c>
       <c r="AO42" s="2"/>
       <c r="AP42" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="2"/>
       <c r="AS42" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>26.123899999999999</v>
+        <v>114.51589999999999</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3">
-        <v>26.123899999999999</v>
+        <v>114.51589999999999</v>
       </c>
       <c r="D43" s="3">
-        <v>32.0167</v>
+        <v>108.62309999999999</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3">
-        <v>32.0167</v>
+        <v>108.62309999999999</v>
       </c>
       <c r="G43" s="3">
-        <v>37.909500000000001</v>
+        <v>102.7303</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="3">
-        <v>37.909500000000001</v>
+        <v>102.7303</v>
       </c>
       <c r="J43" s="3">
-        <v>43.802300000000002</v>
+        <v>96.837500000000006</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="3">
-        <v>43.802300000000002</v>
+        <v>96.837500000000006</v>
       </c>
       <c r="M43" s="3">
-        <v>49.695099999999996</v>
+        <v>90.944700000000012</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="3">
-        <v>49.695099999999996</v>
+        <v>90.944700000000012</v>
       </c>
       <c r="P43" s="3">
-        <v>55.587900000000005</v>
+        <v>85.051900000000003</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>61.480699999999999</v>
+        <v>79.159099999999995</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="3">
+        <v>79.159099999999995</v>
+      </c>
+      <c r="V43" s="3">
+        <v>73.266300000000001</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>73.266300000000001</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>67.373500000000007</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>67.373500000000007</v>
+      </c>
+      <c r="AB43" s="3">
         <v>61.480699999999999</v>
       </c>
-      <c r="V43" s="3">
-        <v>67.373500000000007</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X43" s="3">
-        <v>67.373500000000007</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>73.266300000000001</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>73.266300000000001</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>79.159099999999995</v>
-      </c>
       <c r="AC43" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="3">
-        <v>79.159099999999995</v>
+        <v>61.480699999999999</v>
       </c>
       <c r="AE43" s="3">
-        <v>85.051900000000003</v>
+        <v>55.587900000000005</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="3">
-        <v>85.051900000000003</v>
+        <v>55.587900000000005</v>
       </c>
       <c r="AH43" s="3">
-        <v>90.944700000000012</v>
+        <v>49.695099999999996</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="3">
-        <v>90.944700000000012</v>
+        <v>49.695099999999996</v>
       </c>
       <c r="AK43" s="3">
-        <v>96.837500000000006</v>
+        <v>43.802300000000002</v>
       </c>
       <c r="AL43" s="2"/>
       <c r="AM43" s="3">
-        <v>96.837500000000006</v>
+        <v>43.802300000000002</v>
       </c>
       <c r="AN43" s="3">
-        <v>102.7303</v>
+        <v>37.909500000000001</v>
       </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="2"/>
       <c r="AS43" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>23.748999999999999</v>
+        <v>112.14099999999998</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3">
-        <v>23.748999999999999</v>
+        <v>112.14099999999998</v>
       </c>
       <c r="D44" s="3">
-        <v>29.6418</v>
+        <v>106.24819999999998</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3">
-        <v>29.6418</v>
+        <v>106.24819999999998</v>
       </c>
       <c r="G44" s="3">
-        <v>35.534599999999998</v>
+        <v>100.35539999999999</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="3">
-        <v>35.534599999999998</v>
+        <v>100.35539999999999</v>
       </c>
       <c r="J44" s="3">
-        <v>41.427399999999999</v>
+        <v>94.462599999999995</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="3">
-        <v>41.427399999999999</v>
+        <v>94.462599999999995</v>
       </c>
       <c r="M44" s="3">
-        <v>47.3202</v>
+        <v>88.569800000000001</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="3">
-        <v>47.3202</v>
+        <v>88.569800000000001</v>
       </c>
       <c r="P44" s="3">
-        <v>53.213000000000001</v>
+        <v>82.677000000000007</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>59.105800000000002</v>
+        <v>76.784199999999998</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="3">
+        <v>76.784199999999998</v>
+      </c>
+      <c r="V44" s="3">
+        <v>70.891400000000004</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>70.891400000000004</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>64.998599999999996</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>64.998599999999996</v>
+      </c>
+      <c r="AB44" s="3">
         <v>59.105800000000002</v>
       </c>
-      <c r="V44" s="3">
-        <v>64.998599999999996</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X44" s="3">
-        <v>64.998599999999996</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>70.891400000000004</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>70.891400000000004</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>76.784199999999998</v>
-      </c>
       <c r="AC44" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="3">
-        <v>76.784199999999998</v>
+        <v>59.105800000000002</v>
       </c>
       <c r="AE44" s="3">
-        <v>82.677000000000007</v>
+        <v>53.213000000000001</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="3">
-        <v>82.677000000000007</v>
+        <v>53.213000000000001</v>
       </c>
       <c r="AH44" s="3">
-        <v>88.569800000000001</v>
+        <v>47.3202</v>
       </c>
       <c r="AI44" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="3">
-        <v>88.569800000000001</v>
+        <v>47.3202</v>
       </c>
       <c r="AK44" s="3">
-        <v>94.462599999999995</v>
+        <v>41.427399999999999</v>
       </c>
       <c r="AL44" s="2"/>
       <c r="AM44" s="3">
-        <v>94.462599999999995</v>
+        <v>41.427399999999999</v>
       </c>
       <c r="AN44" s="3">
-        <v>100.35539999999999</v>
+        <v>35.534599999999998</v>
       </c>
       <c r="AO44" s="2"/>
       <c r="AP44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="2"/>
       <c r="AS44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>21.374099999999999</v>
+        <v>109.76609999999998</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3">
-        <v>21.374099999999999</v>
+        <v>109.76609999999998</v>
       </c>
       <c r="D45" s="3">
-        <v>27.2669</v>
+        <v>103.87329999999999</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3">
-        <v>27.2669</v>
+        <v>103.87329999999999</v>
       </c>
       <c r="G45" s="3">
-        <v>33.159700000000001</v>
+        <v>97.980499999999992</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="3">
-        <v>33.159700000000001</v>
+        <v>97.980499999999992</v>
       </c>
       <c r="J45" s="3">
-        <v>39.052499999999995</v>
+        <v>92.087699999999998</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="3">
-        <v>39.052499999999995</v>
+        <v>92.087699999999998</v>
       </c>
       <c r="M45" s="3">
-        <v>44.945300000000003</v>
+        <v>86.194900000000004</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="3">
-        <v>44.945300000000003</v>
+        <v>86.194900000000004</v>
       </c>
       <c r="P45" s="3">
-        <v>50.838099999999997</v>
+        <v>80.302099999999996</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>56.730899999999998</v>
+        <v>74.409300000000002</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="3">
+        <v>74.409300000000002</v>
+      </c>
+      <c r="V45" s="3">
+        <v>68.516500000000008</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>68.516500000000008</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>62.623699999999999</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>62.623699999999999</v>
+      </c>
+      <c r="AB45" s="3">
         <v>56.730899999999998</v>
       </c>
-      <c r="V45" s="3">
-        <v>62.623699999999999</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X45" s="3">
-        <v>62.623699999999999</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>68.516500000000008</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>68.516500000000008</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>74.409300000000002</v>
-      </c>
       <c r="AC45" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>74.409300000000002</v>
+        <v>56.730899999999998</v>
       </c>
       <c r="AE45" s="3">
-        <v>80.302099999999996</v>
+        <v>50.838099999999997</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="3">
-        <v>80.302099999999996</v>
+        <v>50.838099999999997</v>
       </c>
       <c r="AH45" s="3">
-        <v>86.194900000000004</v>
+        <v>44.945300000000003</v>
       </c>
       <c r="AI45" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="3">
-        <v>86.194900000000004</v>
+        <v>44.945300000000003</v>
       </c>
       <c r="AK45" s="3">
-        <v>92.087699999999998</v>
+        <v>39.052499999999995</v>
       </c>
       <c r="AL45" s="2"/>
       <c r="AM45" s="3">
-        <v>92.087699999999998</v>
+        <v>39.052499999999995</v>
       </c>
       <c r="AN45" s="3">
-        <v>97.980499999999992</v>
+        <v>33.159700000000001</v>
       </c>
       <c r="AO45" s="2"/>
       <c r="AP45" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="2"/>
       <c r="AS45" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>18.999199999999998</v>
+        <v>107.39119999999998</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3">
-        <v>18.999199999999998</v>
+        <v>107.39119999999998</v>
       </c>
       <c r="D46" s="3">
-        <v>24.891999999999999</v>
+        <v>101.49839999999999</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3">
-        <v>24.891999999999999</v>
+        <v>101.49839999999999</v>
       </c>
       <c r="G46" s="3">
-        <v>30.784799999999997</v>
+        <v>95.605599999999995</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="3">
-        <v>30.784799999999997</v>
+        <v>95.605599999999995</v>
       </c>
       <c r="J46" s="3">
-        <v>36.677599999999998</v>
+        <v>89.712800000000001</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="3">
-        <v>36.677599999999998</v>
+        <v>89.712800000000001</v>
       </c>
       <c r="M46" s="3">
-        <v>42.570399999999999</v>
+        <v>83.820000000000007</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="3">
-        <v>42.570399999999999</v>
+        <v>83.820000000000007</v>
       </c>
       <c r="P46" s="3">
-        <v>48.463200000000001</v>
+        <v>77.927199999999999</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>54.355999999999995</v>
+        <v>72.034400000000005</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="3">
+        <v>72.034400000000005</v>
+      </c>
+      <c r="V46" s="3">
+        <v>66.141599999999997</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>66.141599999999997</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>60.248800000000003</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>60.248800000000003</v>
+      </c>
+      <c r="AB46" s="3">
         <v>54.355999999999995</v>
       </c>
-      <c r="V46" s="3">
-        <v>60.248800000000003</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X46" s="3">
-        <v>60.248800000000003</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>66.141599999999997</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>66.141599999999997</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>72.034400000000005</v>
-      </c>
       <c r="AC46" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="3">
-        <v>72.034400000000005</v>
+        <v>54.355999999999995</v>
       </c>
       <c r="AE46" s="3">
-        <v>77.927199999999999</v>
+        <v>48.463200000000001</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="3">
-        <v>77.927199999999999</v>
+        <v>48.463200000000001</v>
       </c>
       <c r="AH46" s="3">
-        <v>83.820000000000007</v>
+        <v>42.570399999999999</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="3">
-        <v>83.820000000000007</v>
+        <v>42.570399999999999</v>
       </c>
       <c r="AK46" s="3">
-        <v>89.712800000000001</v>
+        <v>36.677599999999998</v>
       </c>
       <c r="AL46" s="2"/>
       <c r="AM46" s="3">
-        <v>89.712800000000001</v>
+        <v>36.677599999999998</v>
       </c>
       <c r="AN46" s="3">
-        <v>95.605599999999995</v>
+        <v>30.784799999999997</v>
       </c>
       <c r="AO46" s="2"/>
       <c r="AP46" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="2"/>
       <c r="AS46" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>16.624299999999998</v>
+        <v>105.01629999999997</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>22.517099999999999</v>
+        <v>99.123499999999979</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3">
-        <v>22.517099999999999</v>
+        <v>99.123499999999979</v>
       </c>
       <c r="G47" s="3">
-        <v>28.4099</v>
+        <v>93.230699999999985</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="3">
-        <v>28.4099</v>
+        <v>93.230699999999985</v>
       </c>
       <c r="J47" s="3">
-        <v>34.302700000000002</v>
+        <v>87.337899999999991</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>40.195499999999996</v>
+        <v>81.445099999999996</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="3">
-        <v>40.195499999999996</v>
+        <v>81.445099999999996</v>
       </c>
       <c r="P47" s="3">
-        <v>46.088300000000004</v>
+        <v>75.552300000000002</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>51.981099999999998</v>
+        <v>69.659500000000008</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>63.7667</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>63.7667</v>
+      </c>
+      <c r="Y47" s="3">
         <v>57.873899999999999</v>
       </c>
-      <c r="W47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>57.873899999999999</v>
       </c>
-      <c r="Y47" s="3">
-        <v>63.7667</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>63.7667</v>
-      </c>
       <c r="AB47" s="3">
-        <v>69.659500000000008</v>
+        <v>51.981099999999998</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="3">
-        <v>75.552300000000002</v>
+        <v>46.088300000000004</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="3">
-        <v>75.552300000000002</v>
+        <v>46.088300000000004</v>
       </c>
       <c r="AH47" s="3">
-        <v>81.445099999999996</v>
+        <v>40.195499999999996</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="3">
-        <v>81.445099999999996</v>
+        <v>40.195499999999996</v>
       </c>
       <c r="AK47" s="3">
-        <v>87.337899999999991</v>
+        <v>34.302700000000002</v>
       </c>
       <c r="AL47" s="2"/>
       <c r="AM47" s="3">
-        <v>87.337899999999991</v>
+        <v>34.302700000000002</v>
       </c>
       <c r="AN47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="2"/>
       <c r="AS47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>14.2494</v>
+        <v>102.64139999999998</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3">
-        <v>14.2494</v>
+        <v>102.64139999999998</v>
       </c>
       <c r="D48" s="3">
-        <v>20.142199999999999</v>
+        <v>96.748599999999982</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="3">
-        <v>20.142199999999999</v>
+        <v>96.748599999999982</v>
       </c>
       <c r="G48" s="3">
-        <v>26.035</v>
+        <v>90.855799999999988</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="3">
-        <v>26.035</v>
+        <v>90.855799999999988</v>
       </c>
       <c r="J48" s="3">
-        <v>31.927799999999998</v>
+        <v>84.962999999999994</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="3">
-        <v>31.927799999999998</v>
+        <v>84.962999999999994</v>
       </c>
       <c r="M48" s="3">
-        <v>37.820599999999999</v>
+        <v>79.0702</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="3">
-        <v>37.820599999999999</v>
+        <v>79.0702</v>
       </c>
       <c r="P48" s="3">
-        <v>43.7134</v>
+        <v>73.177400000000006</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>49.606200000000001</v>
+        <v>67.284599999999998</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="3">
+        <v>67.284599999999998</v>
+      </c>
+      <c r="V48" s="3">
+        <v>61.391800000000003</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>61.391800000000003</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>55.499000000000002</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>55.499000000000002</v>
+      </c>
+      <c r="AB48" s="3">
         <v>49.606200000000001</v>
       </c>
-      <c r="V48" s="3">
-        <v>55.499000000000002</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X48" s="3">
-        <v>55.499000000000002</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>61.391800000000003</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>61.391800000000003</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>67.284599999999998</v>
-      </c>
       <c r="AC48" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="3">
-        <v>67.284599999999998</v>
+        <v>49.606200000000001</v>
       </c>
       <c r="AE48" s="3">
-        <v>73.177400000000006</v>
+        <v>43.7134</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="3">
-        <v>73.177400000000006</v>
+        <v>43.7134</v>
       </c>
       <c r="AH48" s="3">
-        <v>79.0702</v>
+        <v>37.820599999999999</v>
       </c>
       <c r="AI48" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="3">
-        <v>79.0702</v>
+        <v>37.820599999999999</v>
       </c>
       <c r="AK48" s="3">
-        <v>84.962999999999994</v>
+        <v>31.927799999999998</v>
       </c>
       <c r="AL48" s="2"/>
       <c r="AM48" s="3">
-        <v>84.962999999999994</v>
+        <v>31.927799999999998</v>
       </c>
       <c r="AN48" s="3">
-        <v>90.855799999999988</v>
+        <v>26.035</v>
       </c>
       <c r="AO48" s="2"/>
       <c r="AP48" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="2"/>
       <c r="AS48" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>11.874499999999999</v>
+        <v>100.26649999999998</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3">
-        <v>11.874499999999999</v>
+        <v>100.26649999999998</v>
       </c>
       <c r="D49" s="3">
-        <v>17.767299999999999</v>
+        <v>94.373699999999985</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3">
-        <v>17.767299999999999</v>
+        <v>94.373699999999985</v>
       </c>
       <c r="G49" s="3">
-        <v>23.6601</v>
+        <v>88.480899999999991</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3">
-        <v>23.6601</v>
+        <v>88.480899999999991</v>
       </c>
       <c r="J49" s="3">
-        <v>29.552900000000001</v>
+        <v>82.588099999999997</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3">
-        <v>29.552900000000001</v>
+        <v>82.588099999999997</v>
       </c>
       <c r="M49" s="3">
-        <v>35.445700000000002</v>
+        <v>76.695300000000003</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="3">
-        <v>35.445700000000002</v>
+        <v>76.695300000000003</v>
       </c>
       <c r="P49" s="3">
-        <v>41.338500000000003</v>
+        <v>70.802500000000009</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>47.231299999999997</v>
+        <v>64.909700000000001</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="3">
+        <v>64.909700000000001</v>
+      </c>
+      <c r="V49" s="3">
+        <v>59.0169</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>59.0169</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>53.124099999999999</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>53.124099999999999</v>
+      </c>
+      <c r="AB49" s="3">
         <v>47.231299999999997</v>
       </c>
-      <c r="V49" s="3">
-        <v>53.124099999999999</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X49" s="3">
-        <v>53.124099999999999</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>59.0169</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>59.0169</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>64.909700000000001</v>
-      </c>
       <c r="AC49" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="3">
-        <v>64.909700000000001</v>
+        <v>47.231299999999997</v>
       </c>
       <c r="AE49" s="3">
-        <v>70.802500000000009</v>
+        <v>41.338500000000003</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="3">
-        <v>70.802500000000009</v>
+        <v>41.338500000000003</v>
       </c>
       <c r="AH49" s="3">
-        <v>76.695300000000003</v>
+        <v>35.445700000000002</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="3">
-        <v>76.695300000000003</v>
+        <v>35.445700000000002</v>
       </c>
       <c r="AK49" s="3">
-        <v>82.588099999999997</v>
+        <v>29.552900000000001</v>
       </c>
       <c r="AL49" s="2"/>
       <c r="AM49" s="3">
-        <v>82.588099999999997</v>
+        <v>29.552900000000001</v>
       </c>
       <c r="AN49" s="3">
-        <v>88.480899999999991</v>
+        <v>23.6601</v>
       </c>
       <c r="AO49" s="2"/>
       <c r="AP49" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="2"/>
       <c r="AS49" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>9.4995999999999992</v>
+        <v>97.891599999999983</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="3">
-        <v>9.4995999999999992</v>
+        <v>97.891599999999983</v>
       </c>
       <c r="D50" s="3">
-        <v>15.392399999999999</v>
+        <v>91.998799999999989</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3">
-        <v>15.392399999999999</v>
+        <v>91.998799999999989</v>
       </c>
       <c r="G50" s="3">
-        <v>21.2852</v>
+        <v>86.105999999999995</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="3">
-        <v>21.2852</v>
+        <v>86.105999999999995</v>
       </c>
       <c r="J50" s="3">
-        <v>27.177999999999997</v>
+        <v>80.213200000000001</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="3">
-        <v>27.177999999999997</v>
+        <v>80.213200000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>33.070799999999998</v>
+        <v>74.320400000000006</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="3">
-        <v>33.070799999999998</v>
+        <v>74.320400000000006</v>
       </c>
       <c r="P50" s="3">
-        <v>38.9636</v>
+        <v>68.427599999999998</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S50" s="3">
-        <v>44.856400000000001</v>
+        <v>62.534800000000004</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="3">
+        <v>62.534800000000004</v>
+      </c>
+      <c r="V50" s="3">
+        <v>56.642000000000003</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>56.642000000000003</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>50.749200000000002</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>50.749200000000002</v>
+      </c>
+      <c r="AB50" s="3">
         <v>44.856400000000001</v>
       </c>
-      <c r="V50" s="3">
-        <v>50.749200000000002</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X50" s="3">
-        <v>50.749200000000002</v>
-      </c>
-      <c r="Y50" s="3">
-        <v>56.642000000000003</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA50" s="3">
-        <v>56.642000000000003</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>62.534800000000004</v>
-      </c>
       <c r="AC50" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="3">
-        <v>62.534800000000004</v>
+        <v>44.856400000000001</v>
       </c>
       <c r="AE50" s="3">
-        <v>68.427599999999998</v>
+        <v>38.9636</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="3">
-        <v>68.427599999999998</v>
+        <v>38.9636</v>
       </c>
       <c r="AH50" s="3">
-        <v>74.320400000000006</v>
+        <v>33.070799999999998</v>
       </c>
       <c r="AI50" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="3">
-        <v>74.320400000000006</v>
+        <v>33.070799999999998</v>
       </c>
       <c r="AK50" s="3">
-        <v>80.213200000000001</v>
+        <v>27.177999999999997</v>
       </c>
       <c r="AL50" s="2"/>
       <c r="AM50" s="3">
-        <v>80.213200000000001</v>
+        <v>27.177999999999997</v>
       </c>
       <c r="AN50" s="3">
-        <v>86.105999999999995</v>
+        <v>21.2852</v>
       </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="2"/>
       <c r="AS50" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>7.1246999999999989</v>
+        <v>95.516699999999986</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3">
-        <v>7.1246999999999989</v>
+        <v>95.516699999999986</v>
       </c>
       <c r="D51" s="3">
-        <v>13.017499999999998</v>
+        <v>89.623899999999992</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3">
-        <v>13.017499999999998</v>
+        <v>89.623899999999992</v>
       </c>
       <c r="G51" s="3">
-        <v>18.910299999999999</v>
+        <v>83.731099999999998</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="3">
-        <v>18.910299999999999</v>
+        <v>83.731099999999998</v>
       </c>
       <c r="J51" s="3">
-        <v>24.803100000000001</v>
+        <v>77.838300000000004</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="3">
-        <v>24.803100000000001</v>
+        <v>77.838300000000004</v>
       </c>
       <c r="M51" s="3">
-        <v>30.695900000000002</v>
+        <v>71.94550000000001</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="3">
-        <v>30.695900000000002</v>
+        <v>71.94550000000001</v>
       </c>
       <c r="P51" s="3">
-        <v>36.588700000000003</v>
+        <v>66.052700000000002</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S51" s="3">
-        <v>42.481499999999997</v>
+        <v>60.1599</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="3">
+        <v>60.1599</v>
+      </c>
+      <c r="V51" s="3">
+        <v>54.267099999999999</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>54.267099999999999</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>48.374299999999998</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>48.374299999999998</v>
+      </c>
+      <c r="AB51" s="3">
         <v>42.481499999999997</v>
       </c>
-      <c r="V51" s="3">
-        <v>48.374299999999998</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X51" s="3">
-        <v>48.374299999999998</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>54.267099999999999</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>54.267099999999999</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>60.1599</v>
-      </c>
       <c r="AC51" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="3">
-        <v>60.1599</v>
+        <v>42.481499999999997</v>
       </c>
       <c r="AE51" s="3">
-        <v>66.052700000000002</v>
+        <v>36.588700000000003</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="3">
-        <v>66.052700000000002</v>
+        <v>36.588700000000003</v>
       </c>
       <c r="AH51" s="3">
-        <v>71.94550000000001</v>
+        <v>30.695900000000002</v>
       </c>
       <c r="AI51" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="3">
-        <v>71.94550000000001</v>
+        <v>30.695900000000002</v>
       </c>
       <c r="AK51" s="3">
-        <v>77.838300000000004</v>
+        <v>24.803100000000001</v>
       </c>
       <c r="AL51" s="2"/>
       <c r="AM51" s="3">
-        <v>77.838300000000004</v>
+        <v>24.803100000000001</v>
       </c>
       <c r="AN51" s="3">
-        <v>83.731099999999998</v>
+        <v>18.910299999999999</v>
       </c>
       <c r="AO51" s="2"/>
       <c r="AP51" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="2"/>
       <c r="AS51" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>4.7497999999999996</v>
+        <v>93.141799999999975</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3">
-        <v>4.7497999999999996</v>
+        <v>93.141799999999975</v>
       </c>
       <c r="D52" s="3">
-        <v>10.6426</v>
+        <v>87.248999999999981</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3">
-        <v>10.6426</v>
+        <v>87.248999999999981</v>
       </c>
       <c r="G52" s="3">
-        <v>16.535399999999999</v>
+        <v>81.356199999999987</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="3">
-        <v>16.535399999999999</v>
+        <v>81.356199999999987</v>
       </c>
       <c r="J52" s="3">
-        <v>22.4282</v>
+        <v>75.463399999999993</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="3">
-        <v>22.4282</v>
+        <v>75.463399999999993</v>
       </c>
       <c r="M52" s="3">
-        <v>28.321000000000002</v>
+        <v>69.570599999999999</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="3">
-        <v>28.321000000000002</v>
+        <v>69.570599999999999</v>
       </c>
       <c r="P52" s="3">
-        <v>34.213799999999999</v>
+        <v>63.677800000000005</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>40.1066</v>
+        <v>57.785000000000004</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="3">
+        <v>57.785000000000004</v>
+      </c>
+      <c r="V52" s="3">
+        <v>51.892200000000003</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>51.892200000000003</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>45.999400000000001</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>45.999400000000001</v>
+      </c>
+      <c r="AB52" s="3">
         <v>40.1066</v>
       </c>
-      <c r="V52" s="3">
-        <v>45.999400000000001</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X52" s="3">
-        <v>45.999400000000001</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>51.892200000000003</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>51.892200000000003</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>57.785000000000004</v>
-      </c>
       <c r="AC52" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="3">
-        <v>57.785000000000004</v>
+        <v>40.1066</v>
       </c>
       <c r="AE52" s="3">
-        <v>63.677800000000005</v>
+        <v>34.213799999999999</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="3">
-        <v>63.677800000000005</v>
+        <v>34.213799999999999</v>
       </c>
       <c r="AH52" s="3">
-        <v>69.570599999999999</v>
+        <v>28.321000000000002</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="3">
-        <v>69.570599999999999</v>
+        <v>28.321000000000002</v>
       </c>
       <c r="AK52" s="3">
-        <v>75.463399999999993</v>
+        <v>22.4282</v>
       </c>
       <c r="AL52" s="2"/>
       <c r="AM52" s="3">
-        <v>75.463399999999993</v>
+        <v>22.4282</v>
       </c>
       <c r="AN52" s="3">
-        <v>81.356199999999987</v>
+        <v>16.535399999999999</v>
       </c>
       <c r="AO52" s="2"/>
       <c r="AP52" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="2"/>
       <c r="AS52" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>2.3748999999999998</v>
+        <v>90.766899999999978</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3">
-        <v>8.2676999999999996</v>
+        <v>84.874099999999984</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>8.2676999999999996</v>
+        <v>84.874099999999984</v>
       </c>
       <c r="G53" s="3">
-        <v>14.160500000000001</v>
+        <v>78.98129999999999</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>14.160500000000001</v>
+        <v>78.98129999999999</v>
       </c>
       <c r="J53" s="3">
+        <v>73.088499999999996</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>67.195700000000002</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>67.195700000000002</v>
+      </c>
+      <c r="P53" s="3">
+        <v>61.302900000000001</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>55.4101</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>49.517299999999999</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>49.517299999999999</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>43.624499999999998</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>43.624499999999998</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>37.731699999999996</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>31.838900000000002</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>31.838900000000002</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>25.946100000000001</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>25.946100000000001</v>
+      </c>
+      <c r="AK53" s="3">
         <v>20.0533</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="3">
-        <v>25.946100000000001</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O53" s="3">
-        <v>25.946100000000001</v>
-      </c>
-      <c r="P53" s="3">
-        <v>31.838900000000002</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S53" s="3">
-        <v>37.731699999999996</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V53" s="3">
-        <v>43.624499999999998</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X53" s="3">
-        <v>43.624499999999998</v>
-      </c>
-      <c r="Y53" s="3">
-        <v>49.517299999999999</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>49.517299999999999</v>
-      </c>
-      <c r="AB53" s="3">
-        <v>55.4101</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE53" s="3">
-        <v>61.302900000000001</v>
-      </c>
-      <c r="AF53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG53" s="3">
-        <v>61.302900000000001</v>
-      </c>
-      <c r="AH53" s="3">
-        <v>67.195700000000002</v>
-      </c>
-      <c r="AI53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ53" s="3">
-        <v>67.195700000000002</v>
-      </c>
-      <c r="AK53" s="3">
-        <v>73.088499999999996</v>
       </c>
       <c r="AL53" s="2"/>
       <c r="AM53" s="3">
-        <v>73.088499999999996</v>
+        <v>20.0533</v>
       </c>
       <c r="AN53" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="2"/>
       <c r="AS53" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:46" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
-      <c r="B54" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>

--- a/final_layout.xlsx
+++ b/final_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryersonprod-my.sharepoint.com/personal/tmittal_ryerson_ca/Documents/[School]/4X (Capstone)/Programming Models/Final Capstone Model (w git)/capstone-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:20001_{B2E91865-0A70-4CD1-9C91-438FE3FC0F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4CAA8BE0-8CD2-4B31-B290-7C193A041DF2}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:20001_{B2E91865-0A70-4CD1-9C91-438FE3FC0F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{211D0511-BF3F-4AFA-B9A6-0B6BF581F864}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{51D8C235-0F41-438C-A040-BD4EEA39B981}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51D8C235-0F41-438C-A040-BD4EEA39B981}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
